--- a/Output/roaming_impact_reports_per_acct/Alnylam_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Alnylam_driver_summary.xlsx
@@ -483,33 +483,33 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.160.3.2</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>90.40000000000001</v>
+        <v>89.40000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.160.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>91.8</v>
+        <v>89.59999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>891</v>
+        <v>801</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>93.09999999999999</v>
+        <v>92.8</v>
       </c>
     </row>
     <row r="6">
@@ -538,39 +538,39 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>1663</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>96</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>97.7</v>
@@ -579,17 +579,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>97.7</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -602,71 +602,71 @@
         <v>4</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.21.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>7</v>
+        <v>509</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>98.7</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>98.7</v>
@@ -675,33 +675,33 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.21.2</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="17">
@@ -711,26 +711,26 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>1954</v>
+        <v>1647</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>98.8</v>
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>98.90000000000001</v>
@@ -762,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>98.90000000000001</v>
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5445</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="22"/>
@@ -819,15 +819,15 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>226852</v>
+        <v>10451</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E29" s="4" t="n">
         <v/>
@@ -836,15 +836,15 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>276085</v>
+        <v>61902</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E30" s="4" t="n">
         <v/>
@@ -853,234 +853,258 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>625139</v>
+        <v>54631</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E31" s="4" t="n">
-        <v/>
+        <v>100</v>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>4931894</v>
+        <v>445055</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E32" s="4" t="n">
-        <v/>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>10661</v>
+        <v>4931894</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E33" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>56018</v>
+        <v>52237</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E34" s="4" t="n">
-        <v/>
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>34244</v>
+        <v>27295</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E35" s="4" t="n">
-        <v/>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>27599</v>
+        <v>276085</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E36" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>191877</v>
+        <v>625139</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E37" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>262523</v>
+        <v>44160</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E38" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>10451</v>
+        <v>97122</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E39" s="4" t="n">
-        <v/>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>61902</v>
+        <v>78331</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E40" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>161874</v>
+        <v>226852</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E41" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>52096</v>
+        <v>453273</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E42" s="4" t="n">
-        <v/>
+      <c r="E42" s="4" t="inlineStr">
+        <is>
+          <t>2023-03-08</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>684542</v>
+        <v>27599</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>53193</v>
+        <v>10661</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" s="4" t="n">
@@ -1088,94 +1112,94 @@
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2022-08-29</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>27295</v>
+        <v>3650830</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>442178</v>
+        <v>154405</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
         </is>
       </c>
       <c r="B47" s="6" t="n">
-        <v>59635</v>
+        <v>14239</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2022-05-23</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B48" s="6" t="n">
-        <v>52237</v>
+        <v>265400</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B49" s="6" t="n">
-        <v>108823</v>
+        <v>25808</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" s="4" t="n">
@@ -1183,37 +1207,37 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B50" s="6" t="n">
-        <v>78331</v>
+        <v>94657</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B51" s="6" t="n">
-        <v>109036</v>
+        <v>178916</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" s="4" t="n">
@@ -1221,37 +1245,37 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2022-04-25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B52" s="6" t="n">
-        <v>154405</v>
+        <v>109036</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
         </is>
       </c>
       <c r="B53" s="6" t="n">
-        <v>3650830</v>
+        <v>99547</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" s="4" t="n">
@@ -1259,170 +1283,170 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-01-30</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B54" s="6" t="n">
-        <v>14239</v>
+        <v>77849</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B55" s="6" t="n">
-        <v>265400</v>
+        <v>75637</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B56" s="6" t="n">
-        <v>99547</v>
+        <v>34244</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>2022-01-30</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
         </is>
       </c>
       <c r="B57" s="6" t="n">
-        <v>77849</v>
+        <v>1543020</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2021-04-18</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B58" s="6" t="n">
-        <v>44160</v>
+        <v>171222</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2021-03-02</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B59" s="6" t="n">
-        <v>75637</v>
+        <v>238746</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
         </is>
       </c>
       <c r="B60" s="6" t="n">
-        <v>93224</v>
+        <v>170510</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B61" s="6" t="n">
-        <v>450036</v>
+        <v>321983</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
         </is>
       </c>
       <c r="B62" s="6" t="n">
-        <v>1543020</v>
+        <v>52096</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" s="4" t="n">
@@ -1430,18 +1454,18 @@
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
         </is>
       </c>
       <c r="B63" s="6" t="n">
-        <v>169789</v>
+        <v>95547</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" s="4" t="n">
@@ -1449,18 +1473,18 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>2021-03-02</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B64" s="6" t="n">
-        <v>238746</v>
+        <v>121232</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" s="4" t="n">
@@ -1468,37 +1492,37 @@
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B65" s="6" t="n">
-        <v>170510</v>
+        <v>59673</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
         </is>
       </c>
       <c r="B66" s="6" t="n">
-        <v>141909</v>
+        <v>36791</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" s="4" t="n">
@@ -1506,18 +1530,18 @@
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-07-20</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
         </is>
       </c>
       <c r="B67" s="6" t="n">
-        <v>321983</v>
+        <v>684542</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" s="4" t="n">
@@ -1525,18 +1549,18 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2020-06-30</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
         </is>
       </c>
       <c r="B68" s="6" t="n">
-        <v>95547</v>
+        <v>262523</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" s="4" t="n">
@@ -1544,56 +1568,56 @@
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2020-04-05</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B69" s="6" t="n">
-        <v>443012</v>
+        <v>209593</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B70" s="6" t="n">
-        <v>121232</v>
+        <v>67365</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B71" s="6" t="n">
-        <v>59673</v>
+        <v>113652</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" s="4" t="n">
@@ -1601,37 +1625,37 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B72" s="6" t="n">
-        <v>36791</v>
+        <v>56018</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
         </is>
       </c>
       <c r="B73" s="6" t="n">
-        <v>25808</v>
+        <v>308468</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" s="4" t="n">
@@ -1639,56 +1663,56 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2019-10-05</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
         </is>
       </c>
       <c r="B74" s="6" t="n">
-        <v>209593</v>
+        <v>161874</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2019-09-05</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B75" s="6" t="n">
-        <v>178916</v>
+        <v>139827</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
         </is>
       </c>
       <c r="B76" s="6" t="n">
-        <v>67365</v>
+        <v>194659</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" s="4" t="n">
@@ -1696,37 +1720,37 @@
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
         </is>
       </c>
       <c r="B77" s="6" t="n">
-        <v>97122</v>
+        <v>143342</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-08-25</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
         </is>
       </c>
       <c r="B78" s="6" t="n">
-        <v>113652</v>
+        <v>34718</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" s="4" t="n">
@@ -1734,18 +1758,18 @@
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2019-08-14</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B79" s="6" t="n">
-        <v>308468</v>
+        <v>546751</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" s="4" t="n">
@@ -1753,18 +1777,18 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>2019-10-05</t>
+          <t>2019-08-10</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
         </is>
       </c>
       <c r="B80" s="6" t="n">
-        <v>48540</v>
+        <v>443012</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" s="4" t="n">
@@ -1772,18 +1796,18 @@
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>2019-09-05</t>
+          <t>2019-07-06</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
         </is>
       </c>
       <c r="B81" s="6" t="n">
-        <v>139827</v>
+        <v>20227</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" s="4" t="n">
@@ -1791,18 +1815,18 @@
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-05-11</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
         </is>
       </c>
       <c r="B82" s="6" t="n">
-        <v>194659</v>
+        <v>34065</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" s="4" t="n">
@@ -1810,37 +1834,37 @@
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-04-28</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
         </is>
       </c>
       <c r="B83" s="6" t="n">
-        <v>184564</v>
+        <v>108633</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2019-04-06</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
         </is>
       </c>
       <c r="B84" s="6" t="n">
-        <v>34718</v>
+        <v>191877</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" s="4" t="n">
@@ -1848,18 +1872,18 @@
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>2019-08-14</t>
+          <t>2019-03-24</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
         </is>
       </c>
       <c r="B85" s="6" t="n">
-        <v>546751</v>
+        <v>48540</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" s="4" t="n">
@@ -1867,56 +1891,56 @@
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>2019-08-10</t>
+          <t>2019-03-16</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
         </is>
       </c>
       <c r="B86" s="6" t="n">
-        <v>20227</v>
+        <v>61072</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>2019-05-11</t>
+          <t>2018-11-27</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
         </is>
       </c>
       <c r="B87" s="6" t="n">
-        <v>34065</v>
+        <v>184564</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>2019-04-28</t>
+          <t>2018-11-25</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
         </is>
       </c>
       <c r="B88" s="6" t="n">
-        <v>108633</v>
+        <v>108823</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" s="4" t="n">
@@ -1924,7 +1948,7 @@
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>2019-04-06</t>
+          <t>2018-10-31</t>
         </is>
       </c>
     </row>

--- a/Output/roaming_impact_reports_per_acct/Alnylam_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Alnylam_driver_summary.xlsx
@@ -487,29 +487,29 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>89.40000000000001</v>
+        <v>86.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>89.59999999999999</v>
+        <v>89.7</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>801</v>
+        <v>753</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>92.8</v>
+        <v>92.2</v>
       </c>
     </row>
     <row r="6">
@@ -538,26 +538,26 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>94.3</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>96.8</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="8">
@@ -573,7 +573,7 @@
         <v>75</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="9">
@@ -595,46 +595,46 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.40.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.240.0.6</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.40.1.1</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>98.40000000000001</v>
@@ -647,26 +647,26 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>509</v>
+        <v>394</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.21.2</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>98.7</v>
@@ -675,62 +675,62 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.0.7</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>25</v>
+        <v>1392</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.21.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>1647</v>
+        <v>9</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>98.8</v>
@@ -739,14 +739,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.30.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>98.90000000000001</v>
@@ -755,14 +755,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.240.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>98.90000000000001</v>
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3684</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="22"/>
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>54631</v>
+        <v>56069</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>445055</v>
+        <v>449371</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>276085</v>
+        <v>276086</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>625139</v>
+        <v>625298</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>453273</v>
+        <v>453652</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="B50" s="6" t="n">
-        <v>94657</v>
+        <v>96091</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" s="4" t="n">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="B53" s="6" t="n">
-        <v>99547</v>
+        <v>99549</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" s="4" t="n">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="B54" s="6" t="n">
-        <v>77849</v>
+        <v>77999</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" s="4" t="n">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="B58" s="6" t="n">
-        <v>171222</v>
+        <v>175767</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" s="4" t="n">
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="B59" s="6" t="n">
-        <v>238746</v>
+        <v>240182</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" s="4" t="n">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="B67" s="6" t="n">
-        <v>684542</v>
+        <v>684728</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" s="4" t="n">
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="B69" s="6" t="n">
-        <v>209593</v>
+        <v>210188</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" s="4" t="n">
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="B73" s="6" t="n">
-        <v>308468</v>
+        <v>308481</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" s="4" t="n">
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="B77" s="6" t="n">
-        <v>143342</v>
+        <v>144782</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" s="4" t="n">
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="B80" s="6" t="n">
-        <v>443012</v>
+        <v>443223</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" s="4" t="n">
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="B83" s="6" t="n">
-        <v>108633</v>
+        <v>109665</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" s="4" t="n">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B86" s="6" t="n">
-        <v>61072</v>
+        <v>62515</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" s="4" t="n">

--- a/Output/roaming_impact_reports_per_acct/Alnylam_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Alnylam_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,10 +490,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>86.3</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="4">
@@ -509,7 +509,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>89.7</v>
+        <v>90.90000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>753</v>
+        <v>782</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>92.2</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="6">
@@ -541,7 +541,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>95.5</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="7">
@@ -573,36 +573,36 @@
         <v>75</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>98.2</v>
@@ -611,14 +611,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.240.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>98.40000000000001</v>
@@ -627,14 +627,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.40.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.240.0.6</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>98.40000000000001</v>
@@ -643,49 +643,49 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.40.1.1</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>394</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.21.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>7</v>
+        <v>392</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.0.7</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.21.2</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>155</v>
+        <v>2</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>1392</v>
+        <v>7</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="16">
@@ -698,23 +698,23 @@
         <v>16</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.0.7</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>9</v>
+        <v>1395</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>98.8</v>
@@ -723,14 +723,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>98.8</v>
@@ -739,91 +739,92 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>98.90000000000001</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>98.90000000000001</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>260</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>3266</v>
-      </c>
-    </row>
+      <c r="B20" s="5" t="n">
+        <v>247</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="21"/>
     <row r="22"/>
     <row r="23"/>
     <row r="24"/>
     <row r="25"/>
-    <row r="26"/>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+        </is>
+      </c>
+    </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Adapter-Driver</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Total Samples</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr"/>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>Good Roaming Calculation (%)</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>Driver Vintage</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr"/>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
-        </is>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+        </is>
+      </c>
+      <c r="B28" s="6" t="n">
+        <v>10451</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>10451</v>
+        <v>61902</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
@@ -836,47 +837,49 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>61902</v>
+        <v>56069</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E30" s="4" t="n">
-        <v/>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>56069</v>
+        <v>449371</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>449371</v>
+        <v>4931894</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
@@ -884,37 +887,37 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>4931894</v>
+        <v>52237</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-08-13</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>52237</v>
+        <v>27295</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
@@ -922,37 +925,37 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-04-13</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>27295</v>
+        <v>276086</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2024-03-19</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>276086</v>
+        <v>625298</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
@@ -960,18 +963,18 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-01-20</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>625298</v>
+        <v>44160</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
@@ -979,56 +982,56 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>44160</v>
+        <v>97122</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>97122</v>
+        <v>78331</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>78331</v>
+        <v>226852</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
@@ -1036,37 +1039,37 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>226852</v>
+        <v>453652</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-03-08</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>453652</v>
+        <v>27599</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
@@ -1074,18 +1077,18 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>27599</v>
+        <v>10661</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
@@ -1093,56 +1096,56 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-08-29</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>10661</v>
+        <v>3650830</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>3650830</v>
+        <v>154405</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>154405</v>
+        <v>14239</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" s="4" t="n">
@@ -1150,41 +1153,41 @@
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2022-05-23</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B47" s="6" t="n">
-        <v>14239</v>
+        <v>265400</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B48" s="6" t="n">
-        <v>265400</v>
+        <v>25808</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
@@ -1195,11 +1198,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B49" s="6" t="n">
-        <v>25808</v>
+        <v>96091</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" s="4" t="n">
@@ -1214,30 +1217,30 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B50" s="6" t="n">
-        <v>96091</v>
+        <v>178916</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-04-25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B51" s="6" t="n">
-        <v>178916</v>
+        <v>109036</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" s="4" t="n">
@@ -1245,18 +1248,18 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
         </is>
       </c>
       <c r="B52" s="6" t="n">
-        <v>109036</v>
+        <v>99549</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" s="4" t="n">
@@ -1264,18 +1267,18 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-01-30</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B53" s="6" t="n">
-        <v>99549</v>
+        <v>77999</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" s="4" t="n">
@@ -1283,37 +1286,37 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>2022-01-30</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B54" s="6" t="n">
-        <v>77999</v>
+        <v>75637</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B55" s="6" t="n">
-        <v>75637</v>
+        <v>34244</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" s="4" t="n">
@@ -1321,18 +1324,18 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
         </is>
       </c>
       <c r="B56" s="6" t="n">
-        <v>34244</v>
+        <v>1543020</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" s="4" t="n">
@@ -1340,18 +1343,18 @@
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2021-04-18</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B57" s="6" t="n">
-        <v>1543020</v>
+        <v>175767</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" s="4" t="n">
@@ -1359,37 +1362,37 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-03-02</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B58" s="6" t="n">
-        <v>175767</v>
+        <v>240182</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>2021-03-02</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
         </is>
       </c>
       <c r="B59" s="6" t="n">
-        <v>240182</v>
+        <v>170510</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" s="4" t="n">
@@ -1404,11 +1407,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B60" s="6" t="n">
-        <v>170510</v>
+        <v>321983</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" s="4" t="n">
@@ -1416,37 +1419,37 @@
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
         </is>
       </c>
       <c r="B61" s="6" t="n">
-        <v>321983</v>
+        <v>52096</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
         </is>
       </c>
       <c r="B62" s="6" t="n">
-        <v>52096</v>
+        <v>95547</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" s="4" t="n">
@@ -1454,41 +1457,41 @@
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B63" s="6" t="n">
-        <v>95547</v>
+        <v>121232</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B64" s="6" t="n">
-        <v>121232</v>
+        <v>59673</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
@@ -1499,30 +1502,30 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
         </is>
       </c>
       <c r="B65" s="6" t="n">
-        <v>59673</v>
+        <v>36791</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-07-20</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
         </is>
       </c>
       <c r="B66" s="6" t="n">
-        <v>36791</v>
+        <v>684728</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" s="4" t="n">
@@ -1530,75 +1533,75 @@
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2020-06-30</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
         </is>
       </c>
       <c r="B67" s="6" t="n">
-        <v>684728</v>
+        <v>262523</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2020-04-05</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B68" s="6" t="n">
-        <v>262523</v>
+        <v>210188</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B69" s="6" t="n">
-        <v>210188</v>
+        <v>67365</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B70" s="6" t="n">
-        <v>67365</v>
+        <v>113652</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" s="4" t="n">
@@ -1613,11 +1616,11 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B71" s="6" t="n">
-        <v>113652</v>
+        <v>56018</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" s="4" t="n">
@@ -1625,18 +1628,18 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
         </is>
       </c>
       <c r="B72" s="6" t="n">
-        <v>56018</v>
+        <v>308481</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" s="4" t="n">
@@ -1644,18 +1647,18 @@
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2019-10-05</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
         </is>
       </c>
       <c r="B73" s="6" t="n">
-        <v>308481</v>
+        <v>161874</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" s="4" t="n">
@@ -1663,18 +1666,18 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>2019-10-05</t>
+          <t>2019-09-05</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B74" s="6" t="n">
-        <v>161874</v>
+        <v>139827</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" s="4" t="n">
@@ -1682,18 +1685,18 @@
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>2019-09-05</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
         </is>
       </c>
       <c r="B75" s="6" t="n">
-        <v>139827</v>
+        <v>194659</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" s="4" t="n">
@@ -1708,49 +1711,49 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
         </is>
       </c>
       <c r="B76" s="6" t="n">
-        <v>194659</v>
+        <v>144782</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-08-25</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
         </is>
       </c>
       <c r="B77" s="6" t="n">
-        <v>144782</v>
+        <v>34718</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2019-08-14</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B78" s="6" t="n">
-        <v>34718</v>
+        <v>546751</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" s="4" t="n">
@@ -1758,18 +1761,18 @@
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>2019-08-14</t>
+          <t>2019-08-10</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
         </is>
       </c>
       <c r="B79" s="6" t="n">
-        <v>546751</v>
+        <v>443223</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" s="4" t="n">
@@ -1777,18 +1780,18 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>2019-08-10</t>
+          <t>2019-07-06</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
         </is>
       </c>
       <c r="B80" s="6" t="n">
-        <v>443223</v>
+        <v>20227</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" s="4" t="n">
@@ -1796,18 +1799,18 @@
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>2019-07-06</t>
+          <t>2019-05-11</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
         </is>
       </c>
       <c r="B81" s="6" t="n">
-        <v>20227</v>
+        <v>34065</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" s="4" t="n">
@@ -1815,18 +1818,18 @@
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>2019-05-11</t>
+          <t>2019-04-28</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
         </is>
       </c>
       <c r="B82" s="6" t="n">
-        <v>34065</v>
+        <v>109665</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" s="4" t="n">
@@ -1834,18 +1837,18 @@
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>2019-04-28</t>
+          <t>2019-04-06</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
         </is>
       </c>
       <c r="B83" s="6" t="n">
-        <v>109665</v>
+        <v>191877</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" s="4" t="n">
@@ -1853,18 +1856,18 @@
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>2019-04-06</t>
+          <t>2019-03-24</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
         </is>
       </c>
       <c r="B84" s="6" t="n">
-        <v>191877</v>
+        <v>48540</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" s="4" t="n">
@@ -1872,37 +1875,37 @@
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>2019-03-24</t>
+          <t>2019-03-16</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
         </is>
       </c>
       <c r="B85" s="6" t="n">
-        <v>48540</v>
+        <v>62515</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>2019-03-16</t>
+          <t>2018-11-27</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
         </is>
       </c>
       <c r="B86" s="6" t="n">
-        <v>62515</v>
+        <v>184564</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" s="4" t="n">
@@ -1910,37 +1913,37 @@
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>2018-11-27</t>
+          <t>2018-11-25</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
         </is>
       </c>
       <c r="B87" s="6" t="n">
-        <v>184564</v>
+        <v>108823</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>2018-11-25</t>
+          <t>2018-10-31</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
         </is>
       </c>
       <c r="B88" s="6" t="n">
-        <v>108823</v>
+        <v>14221</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" s="4" t="n">
@@ -1948,18 +1951,18 @@
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>2018-10-31</t>
+          <t>2018-05-08</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
         </is>
       </c>
       <c r="B89" s="6" t="n">
-        <v>14221</v>
+        <v>23765</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" s="4" t="n">
@@ -1967,34 +1970,15 @@
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>2018-05-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
-        </is>
-      </c>
-      <c r="B90" s="6" t="n">
-        <v>23765</v>
-      </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E90" s="4" t="inlineStr">
-        <is>
           <t>2018-01-09</t>
         </is>
       </c>
     </row>
+    <row r="90"/>
     <row r="91"/>
     <row r="92"/>
     <row r="93"/>
     <row r="94"/>
-    <row r="95"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Alnylam_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Alnylam_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="48" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
@@ -487,90 +487,90 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>87.5</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.120.0.3</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>32</v>
+        <v>654</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>90.90000000000001</v>
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.5</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>782</v>
+        <v>2</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>91.8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>94.7</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>97.7</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.0.7</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>75</v>
+        <v>2482</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>97.90000000000001</v>
@@ -579,14 +579,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>98.2</v>
@@ -595,65 +595,65 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.240.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>23</v>
+        <v>564</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.40.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.240.0.6</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>26</v>
+        <v>371</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>98.40000000000001</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="14">
@@ -663,151 +663,153 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>392</v>
+        <v>268</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.21.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.30.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.40.0.4</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>1395</v>
+        <v>68</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>98.8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>98.90000000000001</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n">
-        <v>247</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>3152</v>
-      </c>
-    </row>
+      <c r="B18" s="5" t="n">
+        <v>320</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>5026</v>
+      </c>
+    </row>
+    <row r="19"/>
+    <row r="20"/>
     <row r="21"/>
     <row r="22"/>
     <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Adapter-Driver</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Total Samples</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr"/>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>Good Roaming Calculation (%)</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>Driver Vintage</t>
+        </is>
+      </c>
+    </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Good Drivers (Roaming &gt; 99.8%)</t>
-        </is>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="n">
+        <v>10451</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr"/>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
-        </is>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="n">
+        <v>63373</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>10451</v>
+        <v>11128</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
@@ -820,47 +822,49 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>61902</v>
+        <v>69345</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E29" s="4" t="n">
-        <v/>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>56069</v>
+        <v>486214</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>449371</v>
+        <v>4931894</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
@@ -868,37 +872,37 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>4931894</v>
+        <v>52237</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-08-13</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>52237</v>
+        <v>27295</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
@@ -906,37 +910,37 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-04-13</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>27295</v>
+        <v>276524</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2024-03-19</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>276086</v>
+        <v>637128</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
@@ -944,18 +948,18 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-01-20</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>625298</v>
+        <v>44160</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
@@ -963,56 +967,56 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>44160</v>
+        <v>97122</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>97122</v>
+        <v>78477</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>78331</v>
+        <v>226852</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
@@ -1020,37 +1024,37 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>226852</v>
+        <v>459268</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-03-08</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>453652</v>
+        <v>31330</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
@@ -1058,18 +1062,18 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>27599</v>
+        <v>11140</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
@@ -1077,56 +1081,56 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-08-29</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>10661</v>
+        <v>3654692</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>3650830</v>
+        <v>158283</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>154405</v>
+        <v>14487</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" s="4" t="n">
@@ -1134,41 +1138,41 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2022-05-23</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>14239</v>
+        <v>265400</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B47" s="6" t="n">
-        <v>265400</v>
+        <v>25808</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
@@ -1179,11 +1183,11 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B48" s="6" t="n">
-        <v>25808</v>
+        <v>106139</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" s="4" t="n">
@@ -1198,30 +1202,30 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B49" s="6" t="n">
-        <v>96091</v>
+        <v>178916</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-04-25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B50" s="6" t="n">
-        <v>178916</v>
+        <v>109293</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" s="4" t="n">
@@ -1229,18 +1233,18 @@
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
         </is>
       </c>
       <c r="B51" s="6" t="n">
-        <v>109036</v>
+        <v>101951</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" s="4" t="n">
@@ -1248,18 +1252,18 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-01-30</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B52" s="6" t="n">
-        <v>99549</v>
+        <v>79953</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" s="4" t="n">
@@ -1267,37 +1271,37 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>2022-01-30</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B53" s="6" t="n">
-        <v>77999</v>
+        <v>75637</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B54" s="6" t="n">
-        <v>75637</v>
+        <v>35355</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" s="4" t="n">
@@ -1305,18 +1309,18 @@
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
         </is>
       </c>
       <c r="B55" s="6" t="n">
-        <v>34244</v>
+        <v>1543020</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" s="4" t="n">
@@ -1324,56 +1328,56 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2021-04-18</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B56" s="6" t="n">
-        <v>1543020</v>
+        <v>191994</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-03-02</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B57" s="6" t="n">
-        <v>175767</v>
+        <v>244856</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>2021-03-02</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B58" s="6" t="n">
-        <v>240182</v>
+        <v>325504</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" s="4" t="n">
@@ -1381,37 +1385,37 @@
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
         </is>
       </c>
       <c r="B59" s="6" t="n">
-        <v>170510</v>
+        <v>96727</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B60" s="6" t="n">
-        <v>321983</v>
+        <v>122671</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" s="4" t="n">
@@ -1419,18 +1423,18 @@
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B61" s="6" t="n">
-        <v>52096</v>
+        <v>65425</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" s="4" t="n">
@@ -1438,37 +1442,37 @@
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
         </is>
       </c>
       <c r="B62" s="6" t="n">
-        <v>95547</v>
+        <v>36791</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2020-07-20</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
         </is>
       </c>
       <c r="B63" s="6" t="n">
-        <v>121232</v>
+        <v>689912</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" s="4" t="n">
@@ -1476,18 +1480,18 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-06-30</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
         </is>
       </c>
       <c r="B64" s="6" t="n">
-        <v>59673</v>
+        <v>262523</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" s="4" t="n">
@@ -1495,18 +1499,18 @@
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-04-05</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B65" s="6" t="n">
-        <v>36791</v>
+        <v>211798</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" s="4" t="n">
@@ -1514,37 +1518,37 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B66" s="6" t="n">
-        <v>684728</v>
+        <v>69430</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B67" s="6" t="n">
-        <v>262523</v>
+        <v>117653</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" s="4" t="n">
@@ -1552,37 +1556,37 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B68" s="6" t="n">
-        <v>210188</v>
+        <v>56018</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
         </is>
       </c>
       <c r="B69" s="6" t="n">
-        <v>67365</v>
+        <v>310711</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" s="4" t="n">
@@ -1590,18 +1594,18 @@
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-10-05</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
         </is>
       </c>
       <c r="B70" s="6" t="n">
-        <v>113652</v>
+        <v>196098</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" s="4" t="n">
@@ -1609,18 +1613,18 @@
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B71" s="6" t="n">
-        <v>56018</v>
+        <v>140512</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" s="4" t="n">
@@ -1628,18 +1632,18 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
         </is>
       </c>
       <c r="B72" s="6" t="n">
-        <v>308481</v>
+        <v>34718</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" s="4" t="n">
@@ -1647,18 +1651,18 @@
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>2019-10-05</t>
+          <t>2019-08-14</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B73" s="6" t="n">
-        <v>161874</v>
+        <v>546751</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" s="4" t="n">
@@ -1666,18 +1670,18 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>2019-09-05</t>
+          <t>2019-08-10</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
         </is>
       </c>
       <c r="B74" s="6" t="n">
-        <v>139827</v>
+        <v>451638</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" s="4" t="n">
@@ -1685,18 +1689,18 @@
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-07-06</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
         </is>
       </c>
       <c r="B75" s="6" t="n">
-        <v>194659</v>
+        <v>116738</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" s="4" t="n">
@@ -1704,56 +1708,56 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-04-06</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
         </is>
       </c>
       <c r="B76" s="6" t="n">
-        <v>144782</v>
+        <v>191877</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2019-03-24</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
         </is>
       </c>
       <c r="B77" s="6" t="n">
-        <v>34718</v>
+        <v>73817</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>2019-08-14</t>
+          <t>2018-11-27</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
         </is>
       </c>
       <c r="B78" s="6" t="n">
-        <v>546751</v>
+        <v>108823</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" s="4" t="n">
@@ -1761,224 +1765,15 @@
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>2019-08-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
-        </is>
-      </c>
-      <c r="B79" s="6" t="n">
-        <v>443223</v>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E79" s="4" t="inlineStr">
-        <is>
-          <t>2019-07-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
-        </is>
-      </c>
-      <c r="B80" s="6" t="n">
-        <v>20227</v>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E80" s="4" t="inlineStr">
-        <is>
-          <t>2019-05-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
-        </is>
-      </c>
-      <c r="B81" s="6" t="n">
-        <v>34065</v>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E81" s="4" t="inlineStr">
-        <is>
-          <t>2019-04-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
-        </is>
-      </c>
-      <c r="B82" s="6" t="n">
-        <v>109665</v>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E82" s="4" t="inlineStr">
-        <is>
-          <t>2019-04-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
-        </is>
-      </c>
-      <c r="B83" s="6" t="n">
-        <v>191877</v>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E83" s="4" t="inlineStr">
-        <is>
-          <t>2019-03-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
-        </is>
-      </c>
-      <c r="B84" s="6" t="n">
-        <v>48540</v>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E84" s="4" t="inlineStr">
-        <is>
-          <t>2019-03-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
-        </is>
-      </c>
-      <c r="B85" s="6" t="n">
-        <v>62515</v>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E85" s="4" t="inlineStr">
-        <is>
-          <t>2018-11-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
-        </is>
-      </c>
-      <c r="B86" s="6" t="n">
-        <v>184564</v>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E86" s="4" t="inlineStr">
-        <is>
-          <t>2018-11-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
-        </is>
-      </c>
-      <c r="B87" s="6" t="n">
-        <v>108823</v>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E87" s="4" t="inlineStr">
-        <is>
           <t>2018-10-31</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
-        </is>
-      </c>
-      <c r="B88" s="6" t="n">
-        <v>14221</v>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E88" s="4" t="inlineStr">
-        <is>
-          <t>2018-05-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
-        </is>
-      </c>
-      <c r="B89" s="6" t="n">
-        <v>23765</v>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E89" s="4" t="inlineStr">
-        <is>
-          <t>2018-01-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Alnylam_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Alnylam_driver_summary.xlsx
@@ -52,7 +52,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -63,9 +63,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,15 +437,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="48" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
-    <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="34" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -490,10 +487,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>188</v>
+        <v>279</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>78.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -506,10 +503,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>654</v>
+        <v>706</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>87.40000000000001</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="5">
@@ -538,10 +535,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>92</v>
+        <v>92.09999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -557,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="8">
@@ -567,42 +564,42 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>2482</v>
+        <v>2577</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>10</v>
+        <v>244</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>98.40000000000001</v>
@@ -611,14 +608,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.30.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.40.0.4</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>98.5</v>
@@ -627,14 +624,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>564</v>
+        <v>6</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>98.59999999999999</v>
@@ -643,14 +640,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.240.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>371</v>
+        <v>34</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>98.7</v>
@@ -659,1121 +656,3594 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>268</v>
+        <v>578</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.240.0.6</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>21</v>
+        <v>392</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.240.0.6</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.40.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>68</v>
+        <v>286</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n">
-        <v>320</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>5026</v>
-      </c>
-    </row>
-    <row r="19"/>
+      <c r="B19" s="5" t="n">
+        <v>343</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>5456</v>
+      </c>
+    </row>
     <row r="20"/>
     <row r="21"/>
     <row r="22"/>
     <row r="23"/>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24"/>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Good Drivers (Roaming &gt; 99.8%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr"/>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
-        </is>
-      </c>
-      <c r="B26" s="6" t="n">
-        <v>10451</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E26" s="4" t="n">
-        <v/>
+          <t>adapter-driver</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>good sum</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>critical sum</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>warning sum</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>client count</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>total sum</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>adapter</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>driver</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>good roaming calculation (%)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>driver vintage</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
-        </is>
-      </c>
-      <c r="B27" s="6" t="n">
-        <v>63373</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E27" s="4" t="n">
-        <v/>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>376240</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1104</v>
+      </c>
+      <c r="D27" t="n">
+        <v>582</v>
+      </c>
+      <c r="E27" t="n">
+        <v>594</v>
+      </c>
+      <c r="F27" t="n">
+        <v>377926</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>23.10.0.8</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
-        </is>
-      </c>
-      <c r="B28" s="6" t="n">
-        <v>11128</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v/>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1786148</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3309</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4386</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2366</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1793843</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>22.250.0.4</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
-        </is>
-      </c>
-      <c r="B29" s="6" t="n">
-        <v>69345</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>7568454</v>
+      </c>
+      <c r="C29" t="n">
+        <v>14989</v>
+      </c>
+      <c r="D29" t="n">
+        <v>13188</v>
+      </c>
+      <c r="E29" t="n">
+        <v>16900</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7596631</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>22.40.0.7</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2021-09-18</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
-        </is>
-      </c>
-      <c r="B30" s="6" t="n">
-        <v>486214</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.150.1.1</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>290468</v>
+      </c>
+      <c r="C30" t="n">
+        <v>898</v>
+      </c>
+      <c r="D30" t="n">
+        <v>303</v>
+      </c>
+      <c r="E30" t="n">
+        <v>412</v>
+      </c>
+      <c r="F30" t="n">
+        <v>291669</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>22.150.1.1</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
-        </is>
-      </c>
-      <c r="B31" s="6" t="n">
-        <v>4931894</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E31" s="4" t="inlineStr">
-        <is>
-          <t>2024-09-25</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.180.0.4</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>17609</v>
+      </c>
+      <c r="C31" t="n">
+        <v>69</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>57</v>
+      </c>
+      <c r="F31" t="n">
+        <v>17678</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>22.180.0.4</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
-        </is>
-      </c>
-      <c r="B32" s="6" t="n">
-        <v>52237</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E32" s="4" t="inlineStr">
-        <is>
-          <t>2024-08-13</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.250.0.4</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1254472</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4270</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1009</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1946</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1259751</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>22.250.0.4</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
-        </is>
-      </c>
-      <c r="B33" s="6" t="n">
-        <v>27295</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E33" s="4" t="inlineStr">
-        <is>
-          <t>2024-04-13</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.10.0.8</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>448248</v>
+      </c>
+      <c r="C33" t="n">
+        <v>738</v>
+      </c>
+      <c r="D33" t="n">
+        <v>931</v>
+      </c>
+      <c r="E33" t="n">
+        <v>688</v>
+      </c>
+      <c r="F33" t="n">
+        <v>449917</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>23.10.0.8</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
-        </is>
-      </c>
-      <c r="B34" s="6" t="n">
-        <v>276524</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E34" s="4" t="inlineStr">
-        <is>
-          <t>2024-03-19</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>204134</v>
+      </c>
+      <c r="C34" t="n">
+        <v>775</v>
+      </c>
+      <c r="D34" t="n">
+        <v>52</v>
+      </c>
+      <c r="E34" t="n">
+        <v>319</v>
+      </c>
+      <c r="F34" t="n">
+        <v>204961</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>23.120.0.3</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
-        </is>
-      </c>
-      <c r="B35" s="6" t="n">
-        <v>637128</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>2024-01-20</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.0.4</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>28296</v>
+      </c>
+      <c r="C35" t="n">
+        <v>111</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>61</v>
+      </c>
+      <c r="F35" t="n">
+        <v>28407</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>22.220.0.4</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
-        </is>
-      </c>
-      <c r="B36" s="6" t="n">
-        <v>44160</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E36" s="4" t="inlineStr">
-        <is>
-          <t>2023-11-28</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.120.0.3</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>51569</v>
+      </c>
+      <c r="C36" t="n">
+        <v>205</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>50</v>
+      </c>
+      <c r="F36" t="n">
+        <v>51774</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>23.120.0.3</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
-        </is>
-      </c>
-      <c r="B37" s="6" t="n">
-        <v>97122</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E37" s="4" t="inlineStr">
-        <is>
-          <t>2023-10-30</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.230.0.8</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1734330</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2979</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2614</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2960</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1739923</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>22.230.0.8</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
-        </is>
-      </c>
-      <c r="B38" s="6" t="n">
-        <v>78477</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E38" s="4" t="inlineStr">
-        <is>
-          <t>2023-08-14</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>733616</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1647</v>
+      </c>
+      <c r="D38" t="n">
+        <v>507</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1266</v>
+      </c>
+      <c r="F38" t="n">
+        <v>735770</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>22.220.0.4</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
-        </is>
-      </c>
-      <c r="B39" s="6" t="n">
-        <v>226852</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E39" s="4" t="inlineStr">
-        <is>
-          <t>2023-03-28</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.110.1.1</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>134169</v>
+      </c>
+      <c r="C39" t="n">
+        <v>189</v>
+      </c>
+      <c r="D39" t="n">
+        <v>263</v>
+      </c>
+      <c r="E39" t="n">
+        <v>192</v>
+      </c>
+      <c r="F39" t="n">
+        <v>134621</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>22.110.1.1</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
-        </is>
-      </c>
-      <c r="B40" s="6" t="n">
-        <v>459268</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E40" s="4" t="inlineStr">
-        <is>
-          <t>2023-03-08</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>210370</v>
+      </c>
+      <c r="C40" t="n">
+        <v>324</v>
+      </c>
+      <c r="D40" t="n">
+        <v>313</v>
+      </c>
+      <c r="E40" t="n">
+        <v>558</v>
+      </c>
+      <c r="F40" t="n">
+        <v>211007</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>23.70.2.3</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
-        </is>
-      </c>
-      <c r="B41" s="6" t="n">
-        <v>31330</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-22</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1159949</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2346</v>
+      </c>
+      <c r="D41" t="n">
+        <v>583</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1162878</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>22.170.0.3</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2022-08-28</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
-        </is>
-      </c>
-      <c r="B42" s="6" t="n">
-        <v>11140</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E42" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-29</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>192287</v>
+      </c>
+      <c r="C42" t="n">
+        <v>421</v>
+      </c>
+      <c r="D42" t="n">
+        <v>70</v>
+      </c>
+      <c r="E42" t="n">
+        <v>390</v>
+      </c>
+      <c r="F42" t="n">
+        <v>192778</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>23.80.1.3</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
-        </is>
-      </c>
-      <c r="B43" s="6" t="n">
-        <v>3654692</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E43" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.3.2</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>79802</v>
+      </c>
+      <c r="C43" t="n">
+        <v>35</v>
+      </c>
+      <c r="D43" t="n">
+        <v>190</v>
+      </c>
+      <c r="E43" t="n">
+        <v>126</v>
+      </c>
+      <c r="F43" t="n">
+        <v>80027</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>21.90.3.2</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2020-05-03</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
-        </is>
-      </c>
-      <c r="B44" s="6" t="n">
-        <v>158283</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E44" s="4" t="inlineStr">
-        <is>
-          <t>2022-06-20</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1499724</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4069</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1136</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2789</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1504929</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>22.190.0.4</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
-        </is>
-      </c>
-      <c r="B45" s="6" t="n">
-        <v>14487</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E45" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-23</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>330685</v>
+      </c>
+      <c r="C45" t="n">
+        <v>445</v>
+      </c>
+      <c r="D45" t="n">
+        <v>530</v>
+      </c>
+      <c r="E45" t="n">
+        <v>410</v>
+      </c>
+      <c r="F45" t="n">
+        <v>331660</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>22.90.0.5</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2021-09-26</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
-        </is>
-      </c>
-      <c r="B46" s="6" t="n">
-        <v>265400</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E46" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>938125</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2222</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E46" t="n">
+        <v>959</v>
+      </c>
+      <c r="F46" t="n">
+        <v>941353</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>22.20.0.6</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2020-11-29</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
-        </is>
-      </c>
-      <c r="B47" s="6" t="n">
-        <v>25808</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E47" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.240.0.6</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>475627</v>
+      </c>
+      <c r="C47" t="n">
+        <v>594</v>
+      </c>
+      <c r="D47" t="n">
+        <v>974</v>
+      </c>
+      <c r="E47" t="n">
+        <v>627</v>
+      </c>
+      <c r="F47" t="n">
+        <v>477195</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>22.240.0.6</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2023-06-17</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
-        </is>
-      </c>
-      <c r="B48" s="6" t="n">
-        <v>106139</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E48" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.80.1.3</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>140350</v>
+      </c>
+      <c r="C48" t="n">
+        <v>270</v>
+      </c>
+      <c r="D48" t="n">
+        <v>75</v>
+      </c>
+      <c r="E48" t="n">
+        <v>307</v>
+      </c>
+      <c r="F48" t="n">
+        <v>140695</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>23.80.1.3</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
-        </is>
-      </c>
-      <c r="B49" s="6" t="n">
-        <v>178916</v>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E49" s="4" t="inlineStr">
-        <is>
-          <t>2022-04-25</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.100.0.4</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>230530</v>
+      </c>
+      <c r="C49" t="n">
+        <v>421</v>
+      </c>
+      <c r="D49" t="n">
+        <v>37</v>
+      </c>
+      <c r="E49" t="n">
+        <v>399</v>
+      </c>
+      <c r="F49" t="n">
+        <v>230988</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>23.100.0.4</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
-        </is>
-      </c>
-      <c r="B50" s="6" t="n">
-        <v>109293</v>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E50" s="4" t="inlineStr">
-        <is>
-          <t>2022-03-14</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>95095</v>
+      </c>
+      <c r="C50" t="n">
+        <v>191</v>
+      </c>
+      <c r="D50" t="n">
+        <v>30</v>
+      </c>
+      <c r="E50" t="n">
+        <v>247</v>
+      </c>
+      <c r="F50" t="n">
+        <v>95316</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>22.60.0.6</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2021-05-26</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
-        </is>
-      </c>
-      <c r="B51" s="6" t="n">
-        <v>101951</v>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E51" s="4" t="inlineStr">
-        <is>
-          <t>2022-01-30</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1731609</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2149</v>
+      </c>
+      <c r="D51" t="n">
+        <v>656</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1812</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1734414</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>22.0.0.6</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2020-09-16</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
-        </is>
-      </c>
-      <c r="B52" s="6" t="n">
-        <v>79953</v>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E52" s="4" t="inlineStr">
-        <is>
-          <t>2021-08-18</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.0.4</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2595641</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4209</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1357</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2665</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2601207</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>23.40.0.4</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
-        </is>
-      </c>
-      <c r="B53" s="6" t="n">
-        <v>75637</v>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E53" s="4" t="inlineStr">
-        <is>
-          <t>2021-06-28</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.20.1.1</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>10141912</v>
+      </c>
+      <c r="C53" t="n">
+        <v>11110</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10343</v>
+      </c>
+      <c r="E53" t="n">
+        <v>13595</v>
+      </c>
+      <c r="F53" t="n">
+        <v>10163365</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>21.20.1.1</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2019-05-29</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
-        </is>
-      </c>
-      <c r="B54" s="6" t="n">
-        <v>35355</v>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E54" s="4" t="inlineStr">
-        <is>
-          <t>2021-04-27</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.60.1.2</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>12334650</v>
+      </c>
+      <c r="C54" t="n">
+        <v>18519</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6330</v>
+      </c>
+      <c r="E54" t="n">
+        <v>15232</v>
+      </c>
+      <c r="F54" t="n">
+        <v>12359499</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>23.60.1.2</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2024-06-02</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
-        </is>
-      </c>
-      <c r="B55" s="6" t="n">
-        <v>1543020</v>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E55" s="4" t="inlineStr">
-        <is>
-          <t>2021-04-18</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.80.0.7</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2610107</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3372</v>
+      </c>
+      <c r="D55" t="n">
+        <v>914</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4965</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2614393</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>23.80.0.7</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
-        </is>
-      </c>
-      <c r="B56" s="6" t="n">
-        <v>191994</v>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E56" s="4" t="inlineStr">
-        <is>
-          <t>2021-03-02</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.1.3</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>28258</v>
+      </c>
+      <c r="C56" t="n">
+        <v>45</v>
+      </c>
+      <c r="D56" t="n">
+        <v>20</v>
+      </c>
+      <c r="E56" t="n">
+        <v>61</v>
+      </c>
+      <c r="F56" t="n">
+        <v>28323</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>23.90.1.3</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2024-10-12</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
-        </is>
-      </c>
-      <c r="B57" s="6" t="n">
-        <v>244856</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E57" s="4" t="inlineStr">
-        <is>
-          <t>2021-01-19</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1296766</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1864</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2887</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1299705</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>22.0.1.1</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
-        </is>
-      </c>
-      <c r="B58" s="6" t="n">
-        <v>325504</v>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E58" s="4" t="inlineStr">
-        <is>
-          <t>2020-10-19</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>389283</v>
+      </c>
+      <c r="C58" t="n">
+        <v>428</v>
+      </c>
+      <c r="D58" t="n">
+        <v>216</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1233</v>
+      </c>
+      <c r="F58" t="n">
+        <v>389927</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>21.80.2.1</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
-        </is>
-      </c>
-      <c r="B59" s="6" t="n">
-        <v>96727</v>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E59" s="4" t="inlineStr">
-        <is>
-          <t>2020-08-15</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>63994</v>
+      </c>
+      <c r="C59" t="n">
+        <v>66</v>
+      </c>
+      <c r="D59" t="n">
+        <v>41</v>
+      </c>
+      <c r="E59" t="n">
+        <v>68</v>
+      </c>
+      <c r="F59" t="n">
+        <v>64101</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>21.80.0.4</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2020-01-29</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
-        </is>
-      </c>
-      <c r="B60" s="6" t="n">
-        <v>122671</v>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" s="4" t="n">
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>79835</v>
+      </c>
+      <c r="C60" t="n">
+        <v>93</v>
+      </c>
+      <c r="D60" t="n">
+        <v>25</v>
+      </c>
+      <c r="E60" t="n">
+        <v>153</v>
+      </c>
+      <c r="F60" t="n">
+        <v>79953</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>22.80.0.9</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E60" s="4" t="inlineStr">
-        <is>
-          <t>2020-08-05</t>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
-        </is>
-      </c>
-      <c r="B61" s="6" t="n">
-        <v>65425</v>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E61" s="4" t="inlineStr">
-        <is>
-          <t>2020-08-05</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>485568</v>
+      </c>
+      <c r="C61" t="n">
+        <v>468</v>
+      </c>
+      <c r="D61" t="n">
+        <v>178</v>
+      </c>
+      <c r="E61" t="n">
+        <v>568</v>
+      </c>
+      <c r="F61" t="n">
+        <v>486214</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>23.100.0.4</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
-        </is>
-      </c>
-      <c r="B62" s="6" t="n">
-        <v>36791</v>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" s="4" t="n">
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>44133</v>
+      </c>
+      <c r="C62" t="n">
+        <v>17</v>
+      </c>
+      <c r="D62" t="n">
+        <v>10</v>
+      </c>
+      <c r="E62" t="n">
+        <v>89</v>
+      </c>
+      <c r="F62" t="n">
+        <v>44160</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>23.20.0.4</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E62" s="4" t="inlineStr">
-        <is>
-          <t>2020-07-20</t>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
-        </is>
-      </c>
-      <c r="B63" s="6" t="n">
-        <v>689912</v>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" s="4" t="n">
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>4925727</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4589</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1578</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5803</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4931894</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>23.90.0.2</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E63" s="4" t="inlineStr">
-        <is>
-          <t>2020-06-30</t>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
-        </is>
-      </c>
-      <c r="B64" s="6" t="n">
-        <v>262523</v>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E64" s="4" t="inlineStr">
-        <is>
-          <t>2020-04-05</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>265066</v>
+      </c>
+      <c r="C64" t="n">
+        <v>203</v>
+      </c>
+      <c r="D64" t="n">
+        <v>131</v>
+      </c>
+      <c r="E64" t="n">
+        <v>310</v>
+      </c>
+      <c r="F64" t="n">
+        <v>265400</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>22.100.1.1</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
-        </is>
-      </c>
-      <c r="B65" s="6" t="n">
-        <v>211798</v>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" s="4" t="n">
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>689001</v>
+      </c>
+      <c r="C65" t="n">
+        <v>181</v>
+      </c>
+      <c r="D65" t="n">
+        <v>730</v>
+      </c>
+      <c r="E65" t="n">
+        <v>955</v>
+      </c>
+      <c r="F65" t="n">
+        <v>689912</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>21.110.1.1</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E65" s="4" t="inlineStr">
-        <is>
-          <t>2020-02-24</t>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
-        </is>
-      </c>
-      <c r="B66" s="6" t="n">
-        <v>69430</v>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E66" s="4" t="inlineStr">
-        <is>
-          <t>2020-01-06</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>122523</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>147</v>
+      </c>
+      <c r="E66" t="n">
+        <v>116</v>
+      </c>
+      <c r="F66" t="n">
+        <v>122671</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>21.110.3.2</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
-        </is>
-      </c>
-      <c r="B67" s="6" t="n">
-        <v>117653</v>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E67" s="4" t="inlineStr">
-        <is>
-          <t>2020-01-06</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>36772</v>
+      </c>
+      <c r="C67" t="n">
+        <v>17</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>81</v>
+      </c>
+      <c r="F67" t="n">
+        <v>36791</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>21.110.2.1</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
-        </is>
-      </c>
-      <c r="B68" s="6" t="n">
-        <v>56018</v>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E68" s="4" t="inlineStr">
-        <is>
-          <t>2019-12-14</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>226727</v>
+      </c>
+      <c r="C68" t="n">
+        <v>14</v>
+      </c>
+      <c r="D68" t="n">
+        <v>111</v>
+      </c>
+      <c r="E68" t="n">
+        <v>382</v>
+      </c>
+      <c r="F68" t="n">
+        <v>226852</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>22.220.0.4</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
-        </is>
-      </c>
-      <c r="B69" s="6" t="n">
-        <v>310711</v>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E69" s="4" t="inlineStr">
-        <is>
-          <t>2019-10-05</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>276302</v>
+      </c>
+      <c r="C69" t="n">
+        <v>202</v>
+      </c>
+      <c r="D69" t="n">
+        <v>20</v>
+      </c>
+      <c r="E69" t="n">
+        <v>516</v>
+      </c>
+      <c r="F69" t="n">
+        <v>276524</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>23.40.1.1</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
-        </is>
-      </c>
-      <c r="B70" s="6" t="n">
-        <v>196098</v>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E70" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-31</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>636247</v>
+      </c>
+      <c r="C70" t="n">
+        <v>708</v>
+      </c>
+      <c r="D70" t="n">
+        <v>173</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1160</v>
+      </c>
+      <c r="F70" t="n">
+        <v>637128</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>23.30.0.6</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
-        </is>
-      </c>
-      <c r="B71" s="6" t="n">
-        <v>140512</v>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E71" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-31</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>3651434</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3023</v>
+      </c>
+      <c r="D71" t="n">
+        <v>235</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4776</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3654692</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>22.160.0.4</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
-        </is>
-      </c>
-      <c r="B72" s="6" t="n">
-        <v>34718</v>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E72" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-14</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>191891</v>
+      </c>
+      <c r="C72" t="n">
+        <v>86</v>
+      </c>
+      <c r="D72" t="n">
+        <v>17</v>
+      </c>
+      <c r="E72" t="n">
+        <v>374</v>
+      </c>
+      <c r="F72" t="n">
+        <v>191994</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>22.40.0.7</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2021-03-02</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
-        </is>
-      </c>
-      <c r="B73" s="6" t="n">
-        <v>546751</v>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E73" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-10</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>244540</v>
+      </c>
+      <c r="C73" t="n">
+        <v>271</v>
+      </c>
+      <c r="D73" t="n">
+        <v>45</v>
+      </c>
+      <c r="E73" t="n">
+        <v>367</v>
+      </c>
+      <c r="F73" t="n">
+        <v>244856</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>22.30.0.11</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
-        </is>
-      </c>
-      <c r="B74" s="6" t="n">
-        <v>451638</v>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E74" s="4" t="inlineStr">
-        <is>
-          <t>2019-07-06</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>78395</v>
+      </c>
+      <c r="C74" t="n">
+        <v>26</v>
+      </c>
+      <c r="D74" t="n">
+        <v>56</v>
+      </c>
+      <c r="E74" t="n">
+        <v>145</v>
+      </c>
+      <c r="F74" t="n">
+        <v>78477</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>22.250.10.1</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
-        </is>
-      </c>
-      <c r="B75" s="6" t="n">
-        <v>116738</v>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E75" s="4" t="inlineStr">
-        <is>
-          <t>2019-04-06</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>211485</v>
+      </c>
+      <c r="C75" t="n">
+        <v>246</v>
+      </c>
+      <c r="D75" t="n">
+        <v>67</v>
+      </c>
+      <c r="E75" t="n">
+        <v>414</v>
+      </c>
+      <c r="F75" t="n">
+        <v>211798</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>21.80.2.1</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
-        </is>
-      </c>
-      <c r="B76" s="6" t="n">
-        <v>191877</v>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E76" s="4" t="inlineStr">
-        <is>
-          <t>2019-03-24</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>101893</v>
+      </c>
+      <c r="C76" t="n">
+        <v>43</v>
+      </c>
+      <c r="D76" t="n">
+        <v>15</v>
+      </c>
+      <c r="E76" t="n">
+        <v>157</v>
+      </c>
+      <c r="F76" t="n">
+        <v>101951</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>22.120.0.3</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2022-01-30</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
-        </is>
-      </c>
-      <c r="B77" s="6" t="n">
-        <v>73817</v>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" s="4" t="n">
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>325299</v>
+      </c>
+      <c r="C77" t="n">
+        <v>88</v>
+      </c>
+      <c r="D77" t="n">
+        <v>117</v>
+      </c>
+      <c r="E77" t="n">
+        <v>426</v>
+      </c>
+      <c r="F77" t="n">
+        <v>325504</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>22.10.0.7</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E77" s="4" t="inlineStr">
-        <is>
-          <t>2018-11-27</t>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>178769</v>
+      </c>
+      <c r="C78" t="n">
+        <v>130</v>
+      </c>
+      <c r="D78" t="n">
+        <v>17</v>
+      </c>
+      <c r="E78" t="n">
+        <v>250</v>
+      </c>
+      <c r="F78" t="n">
+        <v>178916</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>22.140.0.3</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>73778</v>
+      </c>
+      <c r="C79" t="n">
+        <v>34</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>98</v>
+      </c>
+      <c r="F79" t="n">
+        <v>73817</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>20.110.0.3</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2018-11-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>109196</v>
+      </c>
+      <c r="C80" t="n">
+        <v>93</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4</v>
+      </c>
+      <c r="E80" t="n">
+        <v>170</v>
+      </c>
+      <c r="F80" t="n">
+        <v>109293</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>22.130.0.5</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2022-03-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>69421</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3</v>
+      </c>
+      <c r="D81" t="n">
+        <v>6</v>
+      </c>
+      <c r="E81" t="n">
+        <v>110</v>
+      </c>
+      <c r="F81" t="n">
+        <v>69430</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>21.70.0.6</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>100</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>10450</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>29</v>
+      </c>
+      <c r="F82" t="n">
+        <v>10451</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>21.80.2.3</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>100</v>
+      </c>
+      <c r="J82" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>262466</v>
+      </c>
+      <c r="C83" t="n">
+        <v>48</v>
+      </c>
+      <c r="D83" t="n">
+        <v>9</v>
+      </c>
+      <c r="E83" t="n">
+        <v>198</v>
+      </c>
+      <c r="F83" t="n">
+        <v>262523</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>21.90.1.2</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>100</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2020-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>25800</v>
+      </c>
+      <c r="C84" t="n">
+        <v>4</v>
+      </c>
+      <c r="D84" t="n">
+        <v>4</v>
+      </c>
+      <c r="E84" t="n">
+        <v>28</v>
+      </c>
+      <c r="F84" t="n">
+        <v>25808</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>22.100.0.3</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>100</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>158235</v>
+      </c>
+      <c r="C85" t="n">
+        <v>4</v>
+      </c>
+      <c r="D85" t="n">
+        <v>44</v>
+      </c>
+      <c r="E85" t="n">
+        <v>213</v>
+      </c>
+      <c r="F85" t="n">
+        <v>158283</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>22.150.1.1</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>100</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>196029</v>
+      </c>
+      <c r="C86" t="n">
+        <v>38</v>
+      </c>
+      <c r="D86" t="n">
+        <v>31</v>
+      </c>
+      <c r="E86" t="n">
+        <v>220</v>
+      </c>
+      <c r="F86" t="n">
+        <v>196098</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>21.0.0.5</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>100</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1542699</v>
+      </c>
+      <c r="C87" t="n">
+        <v>280</v>
+      </c>
+      <c r="D87" t="n">
+        <v>41</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1933</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1543020</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>22.50.0.7</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>100</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>75627</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>8</v>
+      </c>
+      <c r="E88" t="n">
+        <v>80</v>
+      </c>
+      <c r="F88" t="n">
+        <v>75637</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>22.70.0.6</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>100</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>191867</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4</v>
+      </c>
+      <c r="D89" t="n">
+        <v>6</v>
+      </c>
+      <c r="E89" t="n">
+        <v>161</v>
+      </c>
+      <c r="F89" t="n">
+        <v>191877</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>21.0.1.1</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>100</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2019-03-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>116698</v>
+      </c>
+      <c r="C90" t="n">
+        <v>25</v>
+      </c>
+      <c r="D90" t="n">
+        <v>15</v>
+      </c>
+      <c r="E90" t="n">
+        <v>305</v>
+      </c>
+      <c r="F90" t="n">
+        <v>116738</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>21.10.0.5</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>100</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2019-04-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>546747</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>428</v>
+      </c>
+      <c r="F91" t="n">
+        <v>546751</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>21.10.1.2</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>100</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2019-08-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>63355</v>
+      </c>
+      <c r="C92" t="n">
+        <v>15</v>
+      </c>
+      <c r="D92" t="n">
+        <v>3</v>
+      </c>
+      <c r="E92" t="n">
+        <v>114</v>
+      </c>
+      <c r="F92" t="n">
+        <v>63373</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>21.10.2.2</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>100</v>
+      </c>
+      <c r="J92" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>96706</v>
+      </c>
+      <c r="C93" t="n">
+        <v>12</v>
+      </c>
+      <c r="D93" t="n">
+        <v>9</v>
+      </c>
+      <c r="E93" t="n">
+        <v>195</v>
+      </c>
+      <c r="F93" t="n">
+        <v>96727</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>21.120.0.9</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>100</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>451424</v>
+      </c>
+      <c r="C94" t="n">
+        <v>204</v>
+      </c>
+      <c r="D94" t="n">
+        <v>10</v>
+      </c>
+      <c r="E94" t="n">
+        <v>433</v>
+      </c>
+      <c r="F94" t="n">
+        <v>451638</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>21.30.3.2</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>100</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>2019-07-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>34702</v>
+      </c>
+      <c r="C95" t="n">
+        <v>14</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2</v>
+      </c>
+      <c r="E95" t="n">
+        <v>44</v>
+      </c>
+      <c r="F95" t="n">
+        <v>34718</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>21.40.1.4</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>100</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>2019-08-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>140487</v>
+      </c>
+      <c r="C96" t="n">
+        <v>18</v>
+      </c>
+      <c r="D96" t="n">
+        <v>7</v>
+      </c>
+      <c r="E96" t="n">
+        <v>409</v>
+      </c>
+      <c r="F96" t="n">
+        <v>140512</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>21.40.2.2</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>100</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>310612</v>
+      </c>
+      <c r="C97" t="n">
+        <v>52</v>
+      </c>
+      <c r="D97" t="n">
+        <v>47</v>
+      </c>
+      <c r="E97" t="n">
+        <v>420</v>
+      </c>
+      <c r="F97" t="n">
+        <v>310711</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>21.50.1.1</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>100</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>2019-10-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>27283</v>
+      </c>
+      <c r="C98" t="n">
+        <v>9</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3</v>
+      </c>
+      <c r="E98" t="n">
+        <v>34</v>
+      </c>
+      <c r="F98" t="n">
+        <v>27295</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>23.50.0.6</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>100</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>52231</v>
+      </c>
+      <c r="C99" t="n">
+        <v>6</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>66</v>
+      </c>
+      <c r="F99" t="n">
+        <v>52237</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>23.70.4.1</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>100</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>31330</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>66</v>
+      </c>
+      <c r="F100" t="n">
+        <v>31330</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>22.190.0.4</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>100</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>459127</v>
+      </c>
+      <c r="C101" t="n">
+        <v>104</v>
+      </c>
+      <c r="D101" t="n">
+        <v>37</v>
+      </c>
+      <c r="E101" t="n">
+        <v>645</v>
+      </c>
+      <c r="F101" t="n">
+        <v>459268</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>22.200.2.1</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>100</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2023-03-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
           <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
         </is>
       </c>
-      <c r="B78" s="6" t="n">
+      <c r="B102" t="n">
         <v>108823</v>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" s="4" t="n">
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>125</v>
+      </c>
+      <c r="F102" t="n">
+        <v>108823</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>20.100.0.4</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
         <v>100</v>
       </c>
-      <c r="E78" s="4" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>2018-10-31</t>
         </is>
       </c>
     </row>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>106139</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>92</v>
+      </c>
+      <c r="F103" t="n">
+        <v>106139</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>22.80.1.1</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>100</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>97109</v>
+      </c>
+      <c r="C104" t="n">
+        <v>10</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3</v>
+      </c>
+      <c r="E104" t="n">
+        <v>116</v>
+      </c>
+      <c r="F104" t="n">
+        <v>97122</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>23.10.0.8</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>100</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>69333</v>
+      </c>
+      <c r="C105" t="n">
+        <v>8</v>
+      </c>
+      <c r="D105" t="n">
+        <v>4</v>
+      </c>
+      <c r="E105" t="n">
+        <v>114</v>
+      </c>
+      <c r="F105" t="n">
+        <v>69345</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>23.110.0.5</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>100</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>14487</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>57</v>
+      </c>
+      <c r="F106" t="n">
+        <v>14487</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>22.150.0.3</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>100</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>11140</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>59</v>
+      </c>
+      <c r="F107" t="n">
+        <v>11140</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>22.150.3.1</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>100</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>65422</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>72</v>
+      </c>
+      <c r="F108" t="n">
+        <v>65425</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>21.110.3.2</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>100</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>11124</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>28</v>
+      </c>
+      <c r="F109" t="n">
+        <v>11128</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>21.40.1.3</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>100</v>
+      </c>
+      <c r="J109" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>56003</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>15</v>
+      </c>
+      <c r="E110" t="n">
+        <v>62</v>
+      </c>
+      <c r="F110" t="n">
+        <v>56018</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>21.60.2.1</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>100</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>2019-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>117615</v>
+      </c>
+      <c r="C111" t="n">
+        <v>24</v>
+      </c>
+      <c r="D111" t="n">
+        <v>14</v>
+      </c>
+      <c r="E111" t="n">
+        <v>151</v>
+      </c>
+      <c r="F111" t="n">
+        <v>117653</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>21.70.0.6</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>100</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>35341</v>
+      </c>
+      <c r="C112" t="n">
+        <v>11</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3</v>
+      </c>
+      <c r="E112" t="n">
+        <v>80</v>
+      </c>
+      <c r="F112" t="n">
+        <v>35355</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>22.50.1.1</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>100</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Alnylam_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Alnylam_driver_summary.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,13 +436,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="48" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="34" customWidth="1" min="7" max="7"/>
+    <col width="37" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="30" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
@@ -480,257 +480,257 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.160.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.120.0.3</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>279</v>
+        <v>1465</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>75</v>
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.160.3.2</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>706</v>
+        <v>257</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>87.8</v>
+        <v>90.90000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.5</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>92.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>97.3</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.40.0.4</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>148</v>
+        <v>5</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>2577</v>
+        <v>62</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>98</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.140.0.3</t>
+          <t>Fi - 16.0 (1657)</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>244</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>98.09999999999999</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.30.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>98.40000000000001</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.40.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.40.1.1</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>98.5</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>98.59999999999999</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>34</v>
+        <v>603</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>98.7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>578</v>
+        <v>242</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>98.7</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.240.0.6</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.21.2</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>392</v>
+        <v>9</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.240.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.240.0.6</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>34</v>
+        <v>429</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>286</v>
+        <v>4</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>343</v>
+        <v>120</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>5456</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="20"/>
@@ -813,23 +813,23 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>376240</v>
+        <v>1869842</v>
       </c>
       <c r="C27" t="n">
-        <v>1104</v>
+        <v>3420</v>
       </c>
       <c r="D27" t="n">
-        <v>582</v>
+        <v>4386</v>
       </c>
       <c r="E27" t="n">
-        <v>594</v>
+        <v>2436</v>
       </c>
       <c r="F27" t="n">
-        <v>377926</v>
+        <v>1877648</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>23.10.0.8</t>
+          <t>22.250.0.4</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -846,30 +846,30 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1786148</v>
+        <v>8170878</v>
       </c>
       <c r="C28" t="n">
-        <v>3309</v>
+        <v>15867</v>
       </c>
       <c r="D28" t="n">
-        <v>4386</v>
+        <v>13188</v>
       </c>
       <c r="E28" t="n">
-        <v>2366</v>
+        <v>18436</v>
       </c>
       <c r="F28" t="n">
-        <v>1793843</v>
+        <v>8199933</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>22.250.0.4</t>
+          <t>22.40.0.7</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -886,30 +886,30 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2021-09-18</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7568454</v>
+        <v>1611822</v>
       </c>
       <c r="C29" t="n">
-        <v>14989</v>
+        <v>4793</v>
       </c>
       <c r="D29" t="n">
-        <v>13188</v>
+        <v>1136</v>
       </c>
       <c r="E29" t="n">
-        <v>16900</v>
+        <v>2996</v>
       </c>
       <c r="F29" t="n">
-        <v>7596631</v>
+        <v>1617751</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>22.40.0.7</t>
+          <t>22.190.0.4</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -926,7 +926,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>290468</v>
+        <v>298304</v>
       </c>
       <c r="C30" t="n">
-        <v>898</v>
+        <v>925</v>
       </c>
       <c r="D30" t="n">
         <v>303</v>
       </c>
       <c r="E30" t="n">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="F30" t="n">
-        <v>291669</v>
+        <v>299532</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -973,32 +973,32 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.180.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17609</v>
+        <v>381616</v>
       </c>
       <c r="C31" t="n">
-        <v>69</v>
+        <v>1106</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="E31" t="n">
-        <v>57</v>
+        <v>601</v>
       </c>
       <c r="F31" t="n">
-        <v>17678</v>
+        <v>383304</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>22.180.0.4</t>
+          <t>23.10.0.8</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -1006,30 +1006,30 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.250.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.180.0.4</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1254472</v>
+        <v>17609</v>
       </c>
       <c r="C32" t="n">
-        <v>4270</v>
+        <v>69</v>
       </c>
       <c r="D32" t="n">
-        <v>1009</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1946</v>
+        <v>57</v>
       </c>
       <c r="F32" t="n">
-        <v>1259751</v>
+        <v>17678</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>22.250.0.4</t>
+          <t>22.180.0.4</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -1046,30 +1046,30 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2022-10-17</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.250.0.4</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>448248</v>
+        <v>1293197</v>
       </c>
       <c r="C33" t="n">
-        <v>738</v>
+        <v>4322</v>
       </c>
       <c r="D33" t="n">
-        <v>931</v>
+        <v>1009</v>
       </c>
       <c r="E33" t="n">
-        <v>688</v>
+        <v>1990</v>
       </c>
       <c r="F33" t="n">
-        <v>449917</v>
+        <v>1298528</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>23.10.0.8</t>
+          <t>22.250.0.4</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -1086,30 +1086,30 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>204134</v>
+        <v>31517</v>
       </c>
       <c r="C34" t="n">
-        <v>775</v>
+        <v>112</v>
       </c>
       <c r="D34" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>319</v>
+        <v>66</v>
       </c>
       <c r="F34" t="n">
-        <v>204961</v>
+        <v>31629</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>23.120.0.3</t>
+          <t>22.220.0.4</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -1126,39 +1126,39 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.25.2</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>28296</v>
+        <v>1771970</v>
       </c>
       <c r="C35" t="n">
-        <v>111</v>
+        <v>7123</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="E35" t="n">
-        <v>61</v>
+        <v>2452</v>
       </c>
       <c r="F35" t="n">
-        <v>28407</v>
+        <v>1779727</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>22.220.0.4</t>
+          <t>20.70.25.2</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -1166,39 +1166,39 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2021-06-21</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>51569</v>
+        <v>467311</v>
       </c>
       <c r="C36" t="n">
-        <v>205</v>
+        <v>772</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>931</v>
       </c>
       <c r="E36" t="n">
-        <v>50</v>
+        <v>706</v>
       </c>
       <c r="F36" t="n">
-        <v>51774</v>
+        <v>469014</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>23.120.0.3</t>
+          <t>23.10.0.8</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -1206,30 +1206,30 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1734330</v>
+        <v>455081</v>
       </c>
       <c r="C37" t="n">
-        <v>2979</v>
+        <v>1861</v>
       </c>
       <c r="D37" t="n">
-        <v>2614</v>
+        <v>52</v>
       </c>
       <c r="E37" t="n">
-        <v>2960</v>
+        <v>639</v>
       </c>
       <c r="F37" t="n">
-        <v>1739923</v>
+        <v>456994</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1238,78 +1238,78 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>22.230.0.8</t>
+          <t>23.120.0.3</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.130.0.5</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>733616</v>
+        <v>789985</v>
       </c>
       <c r="C38" t="n">
-        <v>1647</v>
+        <v>2131</v>
       </c>
       <c r="D38" t="n">
-        <v>507</v>
+        <v>1043</v>
       </c>
       <c r="E38" t="n">
-        <v>1266</v>
+        <v>980</v>
       </c>
       <c r="F38" t="n">
-        <v>735770</v>
+        <v>793159</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>22.220.0.4</t>
+          <t>22.130.0.5</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.110.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>134169</v>
+        <v>1787924</v>
       </c>
       <c r="C39" t="n">
-        <v>189</v>
+        <v>3326</v>
       </c>
       <c r="D39" t="n">
-        <v>263</v>
+        <v>2614</v>
       </c>
       <c r="E39" t="n">
-        <v>192</v>
+        <v>3038</v>
       </c>
       <c r="F39" t="n">
-        <v>134621</v>
+        <v>1793864</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>22.110.1.1</t>
+          <t>22.230.0.8</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2023-05-08</t>
         </is>
       </c>
     </row>
@@ -1337,19 +1337,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>210370</v>
+        <v>218767</v>
       </c>
       <c r="C40" t="n">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="D40" t="n">
         <v>313</v>
       </c>
       <c r="E40" t="n">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="F40" t="n">
-        <v>211007</v>
+        <v>219414</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1373,32 +1373,32 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.110.1.1</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1159949</v>
+        <v>135467</v>
       </c>
       <c r="C41" t="n">
-        <v>2346</v>
+        <v>189</v>
       </c>
       <c r="D41" t="n">
-        <v>583</v>
+        <v>263</v>
       </c>
       <c r="E41" t="n">
-        <v>1850</v>
+        <v>196</v>
       </c>
       <c r="F41" t="n">
-        <v>1162878</v>
+        <v>135919</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>22.170.0.3</t>
+          <t>22.110.1.1</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -1406,79 +1406,77 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2022-08-28</t>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.5</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>192287</v>
+        <v>37344</v>
       </c>
       <c r="C42" t="n">
-        <v>421</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="E42" t="n">
-        <v>390</v>
+        <v>72</v>
       </c>
       <c r="F42" t="n">
-        <v>192778</v>
+        <v>37461</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>23.80.1.3</t>
+          <t>20.50.0.5</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>99.7</v>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>2024-09-03</t>
-        </is>
+      <c r="J42" t="n">
+        <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.3.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.30.1</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79802</v>
+        <v>3413584</v>
       </c>
       <c r="C43" t="n">
-        <v>35</v>
+        <v>6992</v>
       </c>
       <c r="D43" t="n">
-        <v>190</v>
+        <v>2989</v>
       </c>
       <c r="E43" t="n">
-        <v>126</v>
+        <v>5368</v>
       </c>
       <c r="F43" t="n">
-        <v>80027</v>
+        <v>3423565</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>21.90.3.2</t>
+          <t>20.70.30.1</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -1486,39 +1484,39 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2020-05-03</t>
+          <t>2022-01-12</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 21.120.0.9</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1499724</v>
+        <v>130754</v>
       </c>
       <c r="C44" t="n">
-        <v>4069</v>
+        <v>146</v>
       </c>
       <c r="D44" t="n">
-        <v>1136</v>
+        <v>221</v>
       </c>
       <c r="E44" t="n">
-        <v>2789</v>
+        <v>138</v>
       </c>
       <c r="F44" t="n">
-        <v>1504929</v>
+        <v>131121</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>22.190.0.4</t>
+          <t>21.120.0.9</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -1526,39 +1524,39 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.4.2</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>330685</v>
+        <v>4467082</v>
       </c>
       <c r="C45" t="n">
-        <v>445</v>
+        <v>10922</v>
       </c>
       <c r="D45" t="n">
-        <v>530</v>
+        <v>2464</v>
       </c>
       <c r="E45" t="n">
-        <v>410</v>
+        <v>4779</v>
       </c>
       <c r="F45" t="n">
-        <v>331660</v>
+        <v>4480468</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>22.90.0.5</t>
+          <t>20.70.4.2</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -1566,30 +1564,30 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2018-10-21</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>938125</v>
+        <v>335610</v>
       </c>
       <c r="C46" t="n">
-        <v>2222</v>
+        <v>495</v>
       </c>
       <c r="D46" t="n">
-        <v>1006</v>
+        <v>530</v>
       </c>
       <c r="E46" t="n">
-        <v>959</v>
+        <v>414</v>
       </c>
       <c r="F46" t="n">
-        <v>941353</v>
+        <v>336635</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1598,7 +1596,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>22.20.0.6</t>
+          <t>22.90.0.5</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -1606,39 +1604,39 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2021-09-26</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.240.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>475627</v>
+        <v>750778</v>
       </c>
       <c r="C47" t="n">
-        <v>594</v>
+        <v>1655</v>
       </c>
       <c r="D47" t="n">
-        <v>974</v>
+        <v>507</v>
       </c>
       <c r="E47" t="n">
-        <v>627</v>
+        <v>1290</v>
       </c>
       <c r="F47" t="n">
-        <v>477195</v>
+        <v>752940</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>22.240.0.6</t>
+          <t>22.220.0.4</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -1646,230 +1644,230 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2023-06-17</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.80.1.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>140350</v>
+        <v>1021828</v>
       </c>
       <c r="C48" t="n">
-        <v>270</v>
+        <v>2379</v>
       </c>
       <c r="D48" t="n">
-        <v>75</v>
+        <v>1006</v>
       </c>
       <c r="E48" t="n">
-        <v>307</v>
+        <v>1021</v>
       </c>
       <c r="F48" t="n">
-        <v>140695</v>
+        <v>1025213</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>23.80.1.3</t>
+          <t>22.20.0.6</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2020-11-29</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>230530</v>
+        <v>100380</v>
       </c>
       <c r="C49" t="n">
-        <v>421</v>
+        <v>264</v>
       </c>
       <c r="D49" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E49" t="n">
-        <v>399</v>
+        <v>267</v>
       </c>
       <c r="F49" t="n">
-        <v>230988</v>
+        <v>100674</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>23.100.0.4</t>
+          <t>22.60.0.6</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2021-05-26</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>95095</v>
+        <v>65993</v>
       </c>
       <c r="C50" t="n">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="D50" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>247</v>
+        <v>67</v>
       </c>
       <c r="F50" t="n">
-        <v>95316</v>
+        <v>66203</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>22.60.0.6</t>
+          <t>23.120.0.3</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2021-05-26</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.3.2</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1731609</v>
+        <v>80246</v>
       </c>
       <c r="C51" t="n">
-        <v>2149</v>
+        <v>35</v>
       </c>
       <c r="D51" t="n">
-        <v>656</v>
+        <v>190</v>
       </c>
       <c r="E51" t="n">
-        <v>1812</v>
+        <v>128</v>
       </c>
       <c r="F51" t="n">
-        <v>1734414</v>
+        <v>80471</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>22.0.0.6</t>
+          <t>21.90.3.2</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>2020-05-03</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2595641</v>
+        <v>195464</v>
       </c>
       <c r="C52" t="n">
-        <v>4209</v>
+        <v>430</v>
       </c>
       <c r="D52" t="n">
-        <v>1357</v>
+        <v>70</v>
       </c>
       <c r="E52" t="n">
-        <v>2665</v>
+        <v>401</v>
       </c>
       <c r="F52" t="n">
-        <v>2601207</v>
+        <v>195964</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>23.40.0.4</t>
+          <t>23.80.1.3</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.20.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.240.0.6</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>10141912</v>
+        <v>485726</v>
       </c>
       <c r="C53" t="n">
-        <v>11110</v>
+        <v>600</v>
       </c>
       <c r="D53" t="n">
-        <v>10343</v>
+        <v>974</v>
       </c>
       <c r="E53" t="n">
-        <v>13595</v>
+        <v>636</v>
       </c>
       <c r="F53" t="n">
-        <v>10163365</v>
+        <v>487300</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1878,47 +1876,47 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>21.20.1.1</t>
+          <t>22.240.0.6</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2019-05-29</t>
+          <t>2023-06-17</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.60.1.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>12334650</v>
+        <v>69883</v>
       </c>
       <c r="C54" t="n">
-        <v>18519</v>
+        <v>84</v>
       </c>
       <c r="D54" t="n">
-        <v>6330</v>
+        <v>33</v>
       </c>
       <c r="E54" t="n">
-        <v>15232</v>
+        <v>238</v>
       </c>
       <c r="F54" t="n">
-        <v>12359499</v>
+        <v>70000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>23.60.1.2</t>
+          <t>20.70.26.2</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -1926,39 +1924,39 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2024-06-02</t>
+          <t>2021-08-08</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.80.0.7</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.19.1</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2610107</v>
+        <v>71102</v>
       </c>
       <c r="C55" t="n">
-        <v>3372</v>
+        <v>93</v>
       </c>
       <c r="D55" t="n">
-        <v>914</v>
+        <v>25</v>
       </c>
       <c r="E55" t="n">
-        <v>4965</v>
+        <v>88</v>
       </c>
       <c r="F55" t="n">
-        <v>2614393</v>
+        <v>71220</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>23.80.0.7</t>
+          <t>20.70.19.1</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -1966,39 +1964,39 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2024-09-01</t>
+          <t>2020-09-14</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.1.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>28258</v>
+        <v>240434</v>
       </c>
       <c r="C56" t="n">
-        <v>45</v>
+        <v>421</v>
       </c>
       <c r="D56" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E56" t="n">
-        <v>61</v>
+        <v>409</v>
       </c>
       <c r="F56" t="n">
-        <v>28323</v>
+        <v>240892</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>23.90.1.3</t>
+          <t>23.100.0.4</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -2006,39 +2004,39 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2024-10-12</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.80.1.3</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1296766</v>
+        <v>151287</v>
       </c>
       <c r="C57" t="n">
-        <v>1864</v>
+        <v>285</v>
       </c>
       <c r="D57" t="n">
-        <v>1075</v>
+        <v>75</v>
       </c>
       <c r="E57" t="n">
-        <v>2887</v>
+        <v>332</v>
       </c>
       <c r="F57" t="n">
-        <v>1299705</v>
+        <v>151647</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>22.0.1.1</t>
+          <t>23.80.1.3</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -2046,30 +2044,30 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>389283</v>
+        <v>1833336</v>
       </c>
       <c r="C58" t="n">
-        <v>428</v>
+        <v>2376</v>
       </c>
       <c r="D58" t="n">
-        <v>216</v>
+        <v>656</v>
       </c>
       <c r="E58" t="n">
-        <v>1233</v>
+        <v>1899</v>
       </c>
       <c r="F58" t="n">
-        <v>389927</v>
+        <v>1836368</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2078,7 +2076,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>21.80.2.1</t>
+          <t>22.0.0.6</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -2086,30 +2084,30 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-09-16</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>63994</v>
+        <v>1237156</v>
       </c>
       <c r="C59" t="n">
-        <v>66</v>
+        <v>2499</v>
       </c>
       <c r="D59" t="n">
-        <v>41</v>
+        <v>583</v>
       </c>
       <c r="E59" t="n">
-        <v>68</v>
+        <v>1951</v>
       </c>
       <c r="F59" t="n">
-        <v>64101</v>
+        <v>1240238</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2118,7 +2116,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>21.80.0.4</t>
+          <t>22.170.0.3</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -2126,30 +2124,30 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2022-08-28</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>79835</v>
+        <v>63994</v>
       </c>
       <c r="C60" t="n">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D60" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E60" t="n">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="F60" t="n">
-        <v>79953</v>
+        <v>64101</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2158,38 +2156,38 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>22.80.0.9</t>
+          <t>21.80.0.4</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2020-01-29</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>485568</v>
+        <v>81417</v>
       </c>
       <c r="C61" t="n">
-        <v>468</v>
+        <v>107</v>
       </c>
       <c r="D61" t="n">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="E61" t="n">
-        <v>568</v>
+        <v>158</v>
       </c>
       <c r="F61" t="n">
-        <v>486214</v>
+        <v>81549</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2198,38 +2196,38 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>23.100.0.4</t>
+          <t>22.80.0.9</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.1.3</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>44133</v>
+        <v>28258</v>
       </c>
       <c r="C62" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D62" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E62" t="n">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F62" t="n">
-        <v>44160</v>
+        <v>28323</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2238,38 +2236,38 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>23.20.0.4</t>
+          <t>23.90.1.3</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2024-10-12</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.80.0.7</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4925727</v>
+        <v>2685584</v>
       </c>
       <c r="C63" t="n">
-        <v>4589</v>
+        <v>3688</v>
       </c>
       <c r="D63" t="n">
-        <v>1578</v>
+        <v>914</v>
       </c>
       <c r="E63" t="n">
-        <v>5803</v>
+        <v>5134</v>
       </c>
       <c r="F63" t="n">
-        <v>4931894</v>
+        <v>2690186</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2278,78 +2276,78 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>23.90.0.2</t>
+          <t>23.80.0.7</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-01</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.0.4</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>265066</v>
+        <v>2891864</v>
       </c>
       <c r="C64" t="n">
-        <v>203</v>
+        <v>4678</v>
       </c>
       <c r="D64" t="n">
-        <v>131</v>
+        <v>1357</v>
       </c>
       <c r="E64" t="n">
-        <v>310</v>
+        <v>2882</v>
       </c>
       <c r="F64" t="n">
-        <v>265400</v>
+        <v>2897899</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>22.100.1.1</t>
+          <t>23.40.0.4</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2024-03-09</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.60.1.2</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>689001</v>
+        <v>12663105</v>
       </c>
       <c r="C65" t="n">
-        <v>181</v>
+        <v>18946</v>
       </c>
       <c r="D65" t="n">
-        <v>730</v>
+        <v>6330</v>
       </c>
       <c r="E65" t="n">
-        <v>955</v>
+        <v>15512</v>
       </c>
       <c r="F65" t="n">
-        <v>689912</v>
+        <v>12688381</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2358,38 +2356,38 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>21.110.1.1</t>
+          <t>23.60.1.2</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2024-06-02</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.20.1.1</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>122523</v>
+        <v>10161220</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>11110</v>
       </c>
       <c r="D66" t="n">
-        <v>147</v>
+        <v>10343</v>
       </c>
       <c r="E66" t="n">
-        <v>116</v>
+        <v>13613</v>
       </c>
       <c r="F66" t="n">
-        <v>122671</v>
+        <v>10182673</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2398,127 +2396,127 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>21.110.3.2</t>
+          <t>21.20.1.1</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-05-29</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>36772</v>
+        <v>1400496</v>
       </c>
       <c r="C67" t="n">
-        <v>17</v>
+        <v>2029</v>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>1075</v>
       </c>
       <c r="E67" t="n">
-        <v>81</v>
+        <v>3210</v>
       </c>
       <c r="F67" t="n">
-        <v>36791</v>
+        <v>1403600</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>21.110.2.1</t>
+          <t>22.0.1.1</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>226727</v>
+        <v>393045</v>
       </c>
       <c r="C68" t="n">
-        <v>14</v>
+        <v>453</v>
       </c>
       <c r="D68" t="n">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="E68" t="n">
-        <v>382</v>
+        <v>1251</v>
       </c>
       <c r="F68" t="n">
-        <v>226852</v>
+        <v>393714</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>22.220.0.4</t>
+          <t>21.80.2.1</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>276302</v>
+        <v>272039</v>
       </c>
       <c r="C69" t="n">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D69" t="n">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="E69" t="n">
-        <v>516</v>
+        <v>316</v>
       </c>
       <c r="F69" t="n">
-        <v>276524</v>
+        <v>272383</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>23.40.1.1</t>
+          <t>22.100.1.1</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -2526,39 +2524,39 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>636247</v>
+        <v>509717</v>
       </c>
       <c r="C70" t="n">
-        <v>708</v>
+        <v>522</v>
       </c>
       <c r="D70" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E70" t="n">
-        <v>1160</v>
+        <v>590</v>
       </c>
       <c r="F70" t="n">
-        <v>637128</v>
+        <v>510417</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>23.30.0.6</t>
+          <t>23.100.0.4</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -2566,79 +2564,77 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3651434</v>
+        <v>11362</v>
       </c>
       <c r="C71" t="n">
-        <v>3023</v>
+        <v>7</v>
       </c>
       <c r="D71" t="n">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>4776</v>
+        <v>30</v>
       </c>
       <c r="F71" t="n">
-        <v>3654692</v>
+        <v>11369</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>22.160.0.4</t>
+          <t>21.40.1.3</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
-        </is>
+      <c r="J71" t="n">
+        <v/>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>191891</v>
+        <v>161052</v>
       </c>
       <c r="C72" t="n">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D72" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E72" t="n">
-        <v>374</v>
+        <v>197</v>
       </c>
       <c r="F72" t="n">
-        <v>191994</v>
+        <v>161158</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>22.40.0.7</t>
+          <t>20.70.12.5</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -2646,39 +2642,39 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>2021-03-02</t>
+          <t>2019-08-25</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>244540</v>
+        <v>198631</v>
       </c>
       <c r="C73" t="n">
-        <v>271</v>
+        <v>146</v>
       </c>
       <c r="D73" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="E73" t="n">
-        <v>367</v>
+        <v>201</v>
       </c>
       <c r="F73" t="n">
-        <v>244856</v>
+        <v>198781</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>22.30.0.11</t>
+          <t>20.70.5.2</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -2686,30 +2682,30 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2018-11-25</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>78395</v>
+        <v>332850</v>
       </c>
       <c r="C74" t="n">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="D74" t="n">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="E74" t="n">
-        <v>145</v>
+        <v>438</v>
       </c>
       <c r="F74" t="n">
-        <v>78477</v>
+        <v>333066</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2718,7 +2714,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>22.250.10.1</t>
+          <t>22.10.0.7</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -2726,30 +2722,30 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>211485</v>
+        <v>78620</v>
       </c>
       <c r="C75" t="n">
-        <v>246</v>
+        <v>26</v>
       </c>
       <c r="D75" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E75" t="n">
-        <v>414</v>
+        <v>148</v>
       </c>
       <c r="F75" t="n">
-        <v>211798</v>
+        <v>78702</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2758,7 +2754,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>21.80.2.1</t>
+          <t>22.250.10.1</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -2766,30 +2762,30 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>101893</v>
+        <v>258775</v>
       </c>
       <c r="C76" t="n">
-        <v>43</v>
+        <v>303</v>
       </c>
       <c r="D76" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E76" t="n">
-        <v>157</v>
+        <v>380</v>
       </c>
       <c r="F76" t="n">
-        <v>101951</v>
+        <v>259123</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2798,7 +2794,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>22.120.0.3</t>
+          <t>22.30.0.11</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -2806,30 +2802,30 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>2022-01-30</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>325299</v>
+        <v>44133</v>
       </c>
       <c r="C77" t="n">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="D77" t="n">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>426</v>
+        <v>89</v>
       </c>
       <c r="F77" t="n">
-        <v>325504</v>
+        <v>44160</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2838,7 +2834,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>22.10.0.7</t>
+          <t>23.20.0.4</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -2846,30 +2842,30 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>178769</v>
+        <v>650628</v>
       </c>
       <c r="C78" t="n">
-        <v>130</v>
+        <v>762</v>
       </c>
       <c r="D78" t="n">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="E78" t="n">
-        <v>250</v>
+        <v>1192</v>
       </c>
       <c r="F78" t="n">
-        <v>178916</v>
+        <v>651563</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2878,7 +2874,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>22.140.0.3</t>
+          <t>23.30.0.6</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -2886,30 +2882,30 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2024-01-20</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>73778</v>
+        <v>178769</v>
       </c>
       <c r="C79" t="n">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="D79" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E79" t="n">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="F79" t="n">
-        <v>73817</v>
+        <v>178916</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2918,7 +2914,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>20.110.0.3</t>
+          <t>22.140.0.3</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -2926,7 +2922,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>2018-11-27</t>
+          <t>2022-04-25</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2933,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>109196</v>
+        <v>110173</v>
       </c>
       <c r="C80" t="n">
         <v>93</v>
@@ -2946,10 +2942,10 @@
         <v>4</v>
       </c>
       <c r="E80" t="n">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F80" t="n">
-        <v>109293</v>
+        <v>110270</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2973,23 +2969,23 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>69421</v>
+        <v>101893</v>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D81" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E81" t="n">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="F81" t="n">
-        <v>69430</v>
+        <v>101951</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2998,38 +2994,38 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>21.70.0.6</t>
+          <t>22.120.0.3</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2022-01-30</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>10450</v>
+        <v>36982</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E82" t="n">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="F82" t="n">
-        <v>10451</v>
+        <v>37001</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3038,36 +3034,38 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>21.80.2.3</t>
+          <t>21.110.2.1</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>100</v>
-      </c>
-      <c r="J82" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>262466</v>
+        <v>125398</v>
       </c>
       <c r="C83" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="E83" t="n">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="F83" t="n">
-        <v>262523</v>
+        <v>125546</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3076,38 +3074,38 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>21.90.1.2</t>
+          <t>21.110.3.2</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>25800</v>
+        <v>689001</v>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>730</v>
       </c>
       <c r="E84" t="n">
-        <v>28</v>
+        <v>955</v>
       </c>
       <c r="F84" t="n">
-        <v>25808</v>
+        <v>689912</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3116,38 +3114,38 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>22.100.0.3</t>
+          <t>21.110.1.1</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2020-06-30</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>158235</v>
+        <v>4933506</v>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>4594</v>
       </c>
       <c r="D85" t="n">
-        <v>44</v>
+        <v>1578</v>
       </c>
       <c r="E85" t="n">
-        <v>213</v>
+        <v>5811</v>
       </c>
       <c r="F85" t="n">
-        <v>158283</v>
+        <v>4939678</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3156,38 +3154,38 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>22.150.1.1</t>
+          <t>23.90.0.2</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>196029</v>
+        <v>276302</v>
       </c>
       <c r="C86" t="n">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="D86" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E86" t="n">
-        <v>220</v>
+        <v>516</v>
       </c>
       <c r="F86" t="n">
-        <v>196098</v>
+        <v>276524</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3196,38 +3194,38 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>21.0.0.5</t>
+          <t>23.40.1.1</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2024-03-19</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1542699</v>
+        <v>213149</v>
       </c>
       <c r="C87" t="n">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="D87" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="E87" t="n">
-        <v>1933</v>
+        <v>422</v>
       </c>
       <c r="F87" t="n">
-        <v>1543020</v>
+        <v>213465</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3236,78 +3234,78 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>22.50.0.7</t>
+          <t>21.80.2.1</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>75627</v>
+        <v>172561</v>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="E88" t="n">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="F88" t="n">
-        <v>75637</v>
+        <v>172690</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>22.70.0.6</t>
+          <t>22.30.0.11</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>191867</v>
+        <v>226727</v>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="E89" t="n">
-        <v>161</v>
+        <v>382</v>
       </c>
       <c r="F89" t="n">
-        <v>191877</v>
+        <v>226852</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3316,38 +3314,38 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>21.0.1.1</t>
+          <t>22.220.0.4</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>2019-03-24</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>116698</v>
+        <v>3651434</v>
       </c>
       <c r="C90" t="n">
-        <v>25</v>
+        <v>3023</v>
       </c>
       <c r="D90" t="n">
-        <v>15</v>
+        <v>235</v>
       </c>
       <c r="E90" t="n">
-        <v>305</v>
+        <v>4776</v>
       </c>
       <c r="F90" t="n">
-        <v>116738</v>
+        <v>3654692</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3356,38 +3354,38 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>21.10.0.5</t>
+          <t>22.160.0.4</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>2019-04-06</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>546747</v>
+        <v>96719</v>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E91" t="n">
-        <v>428</v>
+        <v>196</v>
       </c>
       <c r="F91" t="n">
-        <v>546751</v>
+        <v>96740</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3396,7 +3394,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>21.10.1.2</t>
+          <t>21.120.0.9</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -3404,30 +3402,30 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>2019-08-10</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>63355</v>
+        <v>457565</v>
       </c>
       <c r="C92" t="n">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="D92" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E92" t="n">
-        <v>114</v>
+        <v>444</v>
       </c>
       <c r="F92" t="n">
-        <v>63373</v>
+        <v>457782</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3436,36 +3434,38 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>21.10.2.2</t>
+          <t>21.30.3.2</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>100</v>
       </c>
-      <c r="J92" t="n">
-        <v/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>2019-07-06</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>96706</v>
+        <v>36134</v>
       </c>
       <c r="C93" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D93" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="F93" t="n">
-        <v>96727</v>
+        <v>36150</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>21.120.0.9</t>
+          <t>21.40.1.4</t>
         </is>
       </c>
       <c r="I93" t="n">
@@ -3482,30 +3482,30 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2019-08-14</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>451424</v>
+        <v>140487</v>
       </c>
       <c r="C94" t="n">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="D94" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="F94" t="n">
-        <v>451638</v>
+        <v>140512</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>21.30.3.2</t>
+          <t>21.40.2.2</t>
         </is>
       </c>
       <c r="I94" t="n">
@@ -3522,30 +3522,30 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>2019-07-06</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>34702</v>
+        <v>316372</v>
       </c>
       <c r="C95" t="n">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="E95" t="n">
-        <v>44</v>
+        <v>424</v>
       </c>
       <c r="F95" t="n">
-        <v>34718</v>
+        <v>316471</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>21.40.1.4</t>
+          <t>21.50.1.1</t>
         </is>
       </c>
       <c r="I95" t="n">
@@ -3562,30 +3562,30 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>2019-08-14</t>
+          <t>2019-10-05</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>140487</v>
+        <v>72840</v>
       </c>
       <c r="C96" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D96" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E96" t="n">
-        <v>409</v>
+        <v>113</v>
       </c>
       <c r="F96" t="n">
-        <v>140512</v>
+        <v>72854</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>21.40.2.2</t>
+          <t>21.70.0.6</t>
         </is>
       </c>
       <c r="I96" t="n">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>310612</v>
+        <v>11202</v>
       </c>
       <c r="C97" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>420</v>
+        <v>30</v>
       </c>
       <c r="F97" t="n">
-        <v>310711</v>
+        <v>11203</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3634,38 +3634,36 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>21.50.1.1</t>
+          <t>21.80.2.3</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>100</v>
       </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>2019-10-05</t>
-        </is>
+      <c r="J97" t="n">
+        <v/>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>27283</v>
+        <v>262466</v>
       </c>
       <c r="C98" t="n">
+        <v>48</v>
+      </c>
+      <c r="D98" t="n">
         <v>9</v>
       </c>
-      <c r="D98" t="n">
-        <v>3</v>
-      </c>
       <c r="E98" t="n">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="F98" t="n">
-        <v>27295</v>
+        <v>262523</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3674,7 +3672,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>23.50.0.6</t>
+          <t>21.90.1.2</t>
         </is>
       </c>
       <c r="I98" t="n">
@@ -3682,30 +3680,30 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2020-04-05</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>52231</v>
+        <v>159354</v>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E99" t="n">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="F99" t="n">
-        <v>52237</v>
+        <v>159402</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3714,7 +3712,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>23.70.4.1</t>
+          <t>22.150.1.1</t>
         </is>
       </c>
       <c r="I99" t="n">
@@ -3722,7 +3720,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
@@ -3733,7 +3731,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>31330</v>
+        <v>34683</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3742,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F100" t="n">
-        <v>31330</v>
+        <v>34683</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3773,19 +3771,19 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>459127</v>
+        <v>461035</v>
       </c>
       <c r="C101" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D101" t="n">
         <v>37</v>
       </c>
       <c r="E101" t="n">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="F101" t="n">
-        <v>459268</v>
+        <v>461179</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3809,23 +3807,23 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>108823</v>
+        <v>25800</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E102" t="n">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="F102" t="n">
-        <v>108823</v>
+        <v>25808</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3834,7 +3832,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>20.100.0.4</t>
+          <t>22.100.0.3</t>
         </is>
       </c>
       <c r="I102" t="n">
@@ -3842,18 +3840,18 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>2018-10-31</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>106139</v>
+        <v>108902</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3862,10 +3860,10 @@
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="F103" t="n">
-        <v>106139</v>
+        <v>108902</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3874,7 +3872,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>22.80.1.1</t>
+          <t>20.100.0.4</t>
         </is>
       </c>
       <c r="I103" t="n">
@@ -3882,30 +3880,30 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2018-10-31</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>97109</v>
+        <v>84618</v>
       </c>
       <c r="C104" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D104" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E104" t="n">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F104" t="n">
-        <v>97122</v>
+        <v>84657</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3914,7 +3912,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>23.10.0.8</t>
+          <t>20.110.0.3</t>
         </is>
       </c>
       <c r="I104" t="n">
@@ -3922,30 +3920,30 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2018-11-27</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>69333</v>
+        <v>200350</v>
       </c>
       <c r="C105" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D105" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E105" t="n">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="F105" t="n">
-        <v>69345</v>
+        <v>200419</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3954,7 +3952,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>23.110.0.5</t>
+          <t>21.0.0.5</t>
         </is>
       </c>
       <c r="I105" t="n">
@@ -3962,39 +3960,39 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>14487</v>
+        <v>192145</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E106" t="n">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="F106" t="n">
-        <v>14487</v>
+        <v>192155</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>22.150.0.3</t>
+          <t>21.0.1.1</t>
         </is>
       </c>
       <c r="I106" t="n">
@@ -4002,39 +4000,39 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2019-03-24</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>11140</v>
+        <v>116698</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E107" t="n">
-        <v>59</v>
+        <v>305</v>
       </c>
       <c r="F107" t="n">
-        <v>11140</v>
+        <v>116738</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>22.150.3.1</t>
+          <t>21.10.0.5</t>
         </is>
       </c>
       <c r="I107" t="n">
@@ -4042,39 +4040,39 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2019-04-06</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>65422</v>
+        <v>546747</v>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>72</v>
+        <v>428</v>
       </c>
       <c r="F108" t="n">
-        <v>65425</v>
+        <v>546751</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>21.110.3.2</t>
+          <t>21.10.1.2</t>
         </is>
       </c>
       <c r="I108" t="n">
@@ -4082,77 +4080,79 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-08-10</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>11124</v>
+        <v>212458</v>
       </c>
       <c r="C109" t="n">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E109" t="n">
-        <v>28</v>
+        <v>391</v>
       </c>
       <c r="F109" t="n">
-        <v>11128</v>
+        <v>212561</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>21.40.1.3</t>
+          <t>22.40.0.7</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>100</v>
       </c>
-      <c r="J109" t="n">
-        <v/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>2021-03-02</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>56003</v>
+        <v>1576605</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="D110" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E110" t="n">
-        <v>62</v>
+        <v>1957</v>
       </c>
       <c r="F110" t="n">
-        <v>56018</v>
+        <v>1576933</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>21.60.2.1</t>
+          <t>22.50.0.7</t>
         </is>
       </c>
       <c r="I110" t="n">
@@ -4160,39 +4160,39 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2021-04-18</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>117615</v>
+        <v>75627</v>
       </c>
       <c r="C111" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D111" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E111" t="n">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="F111" t="n">
-        <v>117653</v>
+        <v>75637</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>21.70.0.6</t>
+          <t>22.70.0.6</t>
         </is>
       </c>
       <c r="I111" t="n">
@@ -4200,45 +4200,763 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>35341</v>
+        <v>116173</v>
       </c>
       <c r="C112" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="F112" t="n">
-        <v>35355</v>
+        <v>116173</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>22.50.1.1</t>
+          <t>22.80.1.1</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>100</v>
       </c>
       <c r="J112" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>97109</v>
+      </c>
+      <c r="C113" t="n">
+        <v>10</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3</v>
+      </c>
+      <c r="E113" t="n">
+        <v>116</v>
+      </c>
+      <c r="F113" t="n">
+        <v>97122</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>23.10.0.8</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>100</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>79831</v>
+      </c>
+      <c r="C114" t="n">
+        <v>8</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4</v>
+      </c>
+      <c r="E114" t="n">
+        <v>125</v>
+      </c>
+      <c r="F114" t="n">
+        <v>79843</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>23.110.0.5</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>100</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>66711</v>
+      </c>
+      <c r="C115" t="n">
+        <v>16</v>
+      </c>
+      <c r="D115" t="n">
+        <v>3</v>
+      </c>
+      <c r="E115" t="n">
+        <v>116</v>
+      </c>
+      <c r="F115" t="n">
+        <v>66730</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>21.10.2.2</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>100</v>
+      </c>
+      <c r="J115" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>27993</v>
+      </c>
+      <c r="C116" t="n">
+        <v>9</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3</v>
+      </c>
+      <c r="E116" t="n">
+        <v>36</v>
+      </c>
+      <c r="F116" t="n">
+        <v>28005</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>23.50.0.6</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>100</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>52231</v>
+      </c>
+      <c r="C117" t="n">
+        <v>6</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>66</v>
+      </c>
+      <c r="F117" t="n">
+        <v>52237</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>23.70.4.1</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>100</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>35502</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>53</v>
+      </c>
+      <c r="F118" t="n">
+        <v>35502</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>20.70.9.1</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>100</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>2019-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>52091</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>3</v>
+      </c>
+      <c r="E119" t="n">
+        <v>68</v>
+      </c>
+      <c r="F119" t="n">
+        <v>52096</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>22.0.1.1</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>100</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>48535</v>
+      </c>
+      <c r="C120" t="n">
+        <v>5</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>77</v>
+      </c>
+      <c r="F120" t="n">
+        <v>48540</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>20.70.8.1</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>100</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>23761</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>29</v>
+      </c>
+      <c r="F121" t="n">
+        <v>23765</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>20.30.1.2</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>100</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>2018-01-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>14221</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>40</v>
+      </c>
+      <c r="F122" t="n">
+        <v>14221</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>20.50.0.4</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>100</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>2018-05-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>20220</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2</v>
+      </c>
+      <c r="D123" t="n">
+        <v>5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>25</v>
+      </c>
+      <c r="F123" t="n">
+        <v>20227</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>20.70.10.2</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>100</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>2019-05-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>161852</v>
+      </c>
+      <c r="C124" t="n">
+        <v>8</v>
+      </c>
+      <c r="D124" t="n">
+        <v>14</v>
+      </c>
+      <c r="E124" t="n">
+        <v>222</v>
+      </c>
+      <c r="F124" t="n">
+        <v>161874</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>20.70.11.3</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>100</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>2019-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>14561</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>59</v>
+      </c>
+      <c r="F125" t="n">
+        <v>14561</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>22.150.0.3</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>100</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>12018</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>61</v>
+      </c>
+      <c r="F126" t="n">
+        <v>12018</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>22.150.3.1</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>100</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>75454</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" t="n">
+        <v>79</v>
+      </c>
+      <c r="F127" t="n">
+        <v>75457</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>21.110.3.2</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>100</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>56003</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>15</v>
+      </c>
+      <c r="E128" t="n">
+        <v>62</v>
+      </c>
+      <c r="F128" t="n">
+        <v>56018</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>21.60.2.1</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>100</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>2019-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>121310</v>
+      </c>
+      <c r="C129" t="n">
+        <v>26</v>
+      </c>
+      <c r="D129" t="n">
+        <v>14</v>
+      </c>
+      <c r="E129" t="n">
+        <v>154</v>
+      </c>
+      <c r="F129" t="n">
+        <v>121350</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>21.70.0.6</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>100</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>35363</v>
+      </c>
+      <c r="C130" t="n">
+        <v>11</v>
+      </c>
+      <c r="D130" t="n">
+        <v>3</v>
+      </c>
+      <c r="E130" t="n">
+        <v>81</v>
+      </c>
+      <c r="F130" t="n">
+        <v>35377</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>22.50.1.1</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>100</v>
+      </c>
+      <c r="J130" t="inlineStr">
         <is>
           <t>2021-04-27</t>
         </is>
